--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="722" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="722" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -24,13 +24,14 @@
     <sheet name="Labor" sheetId="22" r:id="rId15"/>
     <sheet name="FehlerVergleich" sheetId="23" r:id="rId16"/>
     <sheet name="Überlegungen und Punkte" sheetId="24" r:id="rId17"/>
+    <sheet name="Tabelle1" sheetId="25" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="99">
   <si>
     <t>MP1a</t>
   </si>
@@ -425,6 +426,15 @@
   <si>
     <t>Noch einmal den gleichen Vergleich mit den nicht modifizierten Werten (also ohne t=0,95 und ohne Runden)</t>
   </si>
+  <si>
+    <t>Standardabw Gegenü.</t>
+  </si>
+  <si>
+    <t>Vergleich Mittelw. Kontur.</t>
+  </si>
+  <si>
+    <t>Vergleich Mittelwert Spalt</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +444,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +589,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -784,12 +802,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -824,101 +843,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Dezimal" xfId="1" builtinId="3"/>
+    <cellStyle name="Prozent" xfId="3" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Währung" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="48">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thick">
@@ -1257,6 +1192,94 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1272,9 +1295,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -1376,12 +1397,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="63986304"/>
-        <c:axId val="64001152"/>
+        <c:axId val="82198912"/>
+        <c:axId val="82326272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="63986304"/>
+        <c:axId val="82198912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1402,18 +1423,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64001152"/>
+        <c:crossAx val="82326272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64001152"/>
+        <c:axId val="82326272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1435,18 +1455,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63986304"/>
+        <c:crossAx val="82198912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1483,7 +1501,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799506"/>
+          <c:x val="0.34048408325799528"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -2933,11 +2951,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68856064"/>
-        <c:axId val="68878720"/>
+        <c:axId val="68659840"/>
+        <c:axId val="68678400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68856064"/>
+        <c:axId val="68659840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2960,14 +2978,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68878720"/>
+        <c:crossAx val="68678400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68878720"/>
+        <c:axId val="68678400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2992,7 +3010,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68856064"/>
+        <c:crossAx val="68659840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3016,9 +3034,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3120,12 +3136,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68974080"/>
-        <c:axId val="68976000"/>
+        <c:axId val="68814720"/>
+        <c:axId val="68829184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68974080"/>
+        <c:axId val="68814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3146,17 +3162,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68976000"/>
+        <c:crossAx val="68829184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68976000"/>
+        <c:axId val="68829184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3178,18 +3193,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68974080"/>
+        <c:crossAx val="68814720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3207,9 +3220,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -3311,12 +3322,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68997120"/>
-        <c:axId val="68999040"/>
+        <c:axId val="68870528"/>
+        <c:axId val="68872448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68997120"/>
+        <c:axId val="68870528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3337,17 +3348,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68999040"/>
+        <c:crossAx val="68872448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68999040"/>
+        <c:axId val="68872448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3369,18 +3379,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68997120"/>
+        <c:crossAx val="68870528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3414,7 +3422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -3609,12 +3616,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69028864"/>
-        <c:axId val="69039232"/>
+        <c:axId val="69029248"/>
+        <c:axId val="69047808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69028864"/>
+        <c:axId val="69029248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,17 +3642,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69039232"/>
+        <c:crossAx val="69047808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69039232"/>
+        <c:axId val="69047808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3667,18 +3673,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69028864"/>
+        <c:crossAx val="69029248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3906,12 +3910,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69085440"/>
-        <c:axId val="69091712"/>
+        <c:axId val="69143168"/>
+        <c:axId val="69161728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69085440"/>
+        <c:axId val="69143168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,14 +3938,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69091712"/>
+        <c:crossAx val="69161728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69091712"/>
+        <c:axId val="69161728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +3970,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69085440"/>
+        <c:crossAx val="69143168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5523,11 +5527,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69191552"/>
-        <c:axId val="69201920"/>
+        <c:axId val="69810432"/>
+        <c:axId val="69824896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69191552"/>
+        <c:axId val="69810432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5550,14 +5554,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69201920"/>
+        <c:crossAx val="69824896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69201920"/>
+        <c:axId val="69824896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5582,7 +5586,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69191552"/>
+        <c:crossAx val="69810432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5606,9 +5610,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -5710,12 +5712,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69284992"/>
-        <c:axId val="69286912"/>
+        <c:axId val="72230400"/>
+        <c:axId val="72232320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69284992"/>
+        <c:axId val="72230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5736,17 +5738,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69286912"/>
+        <c:crossAx val="72232320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69286912"/>
+        <c:axId val="72232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,18 +5769,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69284992"/>
+        <c:crossAx val="72230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5797,9 +5796,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -5901,12 +5898,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69307776"/>
-        <c:axId val="69334528"/>
+        <c:axId val="72257536"/>
+        <c:axId val="72259456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69307776"/>
+        <c:axId val="72257536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5927,17 +5924,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69334528"/>
+        <c:crossAx val="72259456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69334528"/>
+        <c:axId val="72259456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5959,18 +5955,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69307776"/>
+        <c:crossAx val="72257536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6010,7 +6004,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6181,12 +6174,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69429888"/>
-        <c:axId val="69444352"/>
+        <c:axId val="72281088"/>
+        <c:axId val="72324224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69429888"/>
+        <c:axId val="72281088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,17 +6200,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69444352"/>
+        <c:crossAx val="72324224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69444352"/>
+        <c:axId val="72324224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,18 +6231,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69429888"/>
+        <c:crossAx val="72281088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6284,7 +6274,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6455,12 +6444,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69814144"/>
-        <c:axId val="69820416"/>
+        <c:axId val="72337664"/>
+        <c:axId val="72810880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69814144"/>
+        <c:axId val="72337664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6481,17 +6470,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69820416"/>
+        <c:crossAx val="72810880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69820416"/>
+        <c:axId val="72810880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6513,18 +6501,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69814144"/>
+        <c:crossAx val="72337664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6542,9 +6528,7 @@
   <c:lang val="de-DE"/>
   <c:style val="5"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -6646,12 +6630,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65484288"/>
-        <c:axId val="65486208"/>
+        <c:axId val="55432704"/>
+        <c:axId val="55434624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65484288"/>
+        <c:axId val="55432704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6672,18 +6656,17 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65486208"/>
+        <c:crossAx val="55434624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65486208"/>
+        <c:axId val="55434624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,18 +6688,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65484288"/>
+        <c:crossAx val="55432704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8213,11 +8194,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69793280"/>
-        <c:axId val="69795200"/>
+        <c:axId val="73250688"/>
+        <c:axId val="74514432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69793280"/>
+        <c:axId val="73250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8240,14 +8221,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69795200"/>
+        <c:crossAx val="74514432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69795200"/>
+        <c:axId val="74514432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8272,7 +8253,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69793280"/>
+        <c:crossAx val="73250688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8328,7 +8309,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -8431,12 +8411,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70124288"/>
-        <c:axId val="70126208"/>
+        <c:axId val="74806400"/>
+        <c:axId val="74808320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70124288"/>
+        <c:axId val="74806400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8457,17 +8437,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70126208"/>
+        <c:crossAx val="74808320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70126208"/>
+        <c:axId val="74808320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8489,18 +8468,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70124288"/>
+        <c:crossAx val="74806400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8548,7 +8525,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15934033245844337"/>
+          <c:x val="0.15934033245844351"/>
           <c:y val="5.5555555555555455E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -8654,12 +8631,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70151168"/>
-        <c:axId val="70165632"/>
+        <c:axId val="74841472"/>
+        <c:axId val="74851840"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70151168"/>
+        <c:axId val="74841472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8680,17 +8657,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70165632"/>
+        <c:crossAx val="74851840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70165632"/>
+        <c:axId val="74851840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8712,18 +8688,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70151168"/>
+        <c:crossAx val="74841472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -8762,7 +8736,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -8772,7 +8745,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.6599518810148819E-2"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.61978937007874169"/>
+          <c:w val="0.61978937007874191"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -10399,11 +10372,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="70316416"/>
-        <c:axId val="70318336"/>
+        <c:axId val="81277696"/>
+        <c:axId val="81279616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70316416"/>
+        <c:axId val="81277696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10424,17 +10397,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70318336"/>
+        <c:crossAx val="81279616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70318336"/>
+        <c:axId val="81279616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10456,18 +10428,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70316416"/>
+        <c:crossAx val="81277696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -10511,7 +10481,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -10798,12 +10767,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70250880"/>
-        <c:axId val="70252800"/>
+        <c:axId val="81400576"/>
+        <c:axId val="81402496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70250880"/>
+        <c:axId val="81400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10824,17 +10793,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70252800"/>
+        <c:crossAx val="81402496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70252800"/>
+        <c:axId val="81402496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10856,18 +10824,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70250880"/>
+        <c:crossAx val="81400576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -10901,7 +10867,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -11188,12 +11153,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70361472"/>
-        <c:axId val="70363392"/>
+        <c:axId val="81437440"/>
+        <c:axId val="81439360"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70361472"/>
+        <c:axId val="81437440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11214,17 +11179,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70363392"/>
+        <c:crossAx val="81439360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70363392"/>
+        <c:axId val="81439360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11246,18 +11210,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70361472"/>
+        <c:crossAx val="81437440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11291,7 +11253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -11394,12 +11355,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71482368"/>
-        <c:axId val="71586944"/>
+        <c:axId val="81894784"/>
+        <c:axId val="81905152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71482368"/>
+        <c:axId val="81894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11420,17 +11381,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71586944"/>
+        <c:crossAx val="81905152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71586944"/>
+        <c:axId val="81905152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11452,18 +11412,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71482368"/>
+        <c:crossAx val="81894784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11503,7 +11461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -11606,12 +11563,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71616000"/>
-        <c:axId val="71617920"/>
+        <c:axId val="81934208"/>
+        <c:axId val="81977344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71616000"/>
+        <c:axId val="81934208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11632,17 +11589,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71617920"/>
+        <c:crossAx val="81977344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71617920"/>
+        <c:axId val="81977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11664,18 +11620,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71616000"/>
+        <c:crossAx val="81934208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11709,7 +11663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -11960,12 +11913,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71550464"/>
-        <c:axId val="71552384"/>
+        <c:axId val="82216832"/>
+        <c:axId val="82219008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71550464"/>
+        <c:axId val="82216832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11986,17 +11939,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71552384"/>
+        <c:crossAx val="82219008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71552384"/>
+        <c:axId val="82219008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12018,18 +11970,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71550464"/>
+        <c:crossAx val="82216832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12063,7 +12013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -12314,12 +12263,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71652864"/>
-        <c:axId val="71654784"/>
+        <c:axId val="82270080"/>
+        <c:axId val="82280448"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71652864"/>
+        <c:axId val="82270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12340,17 +12289,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71654784"/>
+        <c:crossAx val="82280448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71654784"/>
+        <c:axId val="82280448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12372,18 +12320,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71652864"/>
+        <c:crossAx val="82270080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12417,7 +12363,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -12612,12 +12557,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65516288"/>
-        <c:axId val="65518208"/>
+        <c:axId val="55460608"/>
+        <c:axId val="55462528"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65516288"/>
+        <c:axId val="55460608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12638,17 +12583,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65518208"/>
+        <c:crossAx val="55462528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65518208"/>
+        <c:axId val="55462528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12670,18 +12614,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65516288"/>
+        <c:crossAx val="55460608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12714,7 +12656,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -12724,8 +12665,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
-          <c:w val="0.772716365724752"/>
-          <c:h val="0.84410365656348085"/>
+          <c:w val="0.77271636572475177"/>
+          <c:h val="0.84410365656348141"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14351,11 +14292,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72874624"/>
-        <c:axId val="71717632"/>
+        <c:axId val="68729856"/>
+        <c:axId val="68883584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72874624"/>
+        <c:axId val="68729856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14376,17 +14317,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71717632"/>
+        <c:crossAx val="68883584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71717632"/>
+        <c:axId val="68883584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14408,18 +14348,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72874624"/>
+        <c:crossAx val="68729856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -14460,7 +14398,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -14778,8 +14715,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80570624"/>
-        <c:axId val="80576896"/>
+        <c:axId val="69139072"/>
+        <c:axId val="69214976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15088,11 +15025,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80593280"/>
-        <c:axId val="80578816"/>
+        <c:axId val="69231360"/>
+        <c:axId val="69216896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80570624"/>
+        <c:axId val="69139072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15113,15 +15050,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80576896"/>
+        <c:crossAx val="69214976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80576896"/>
+        <c:axId val="69214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15143,16 +15079,15 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80570624"/>
+        <c:crossAx val="69139072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80578816"/>
+        <c:axId val="69216896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15173,30 +15108,28 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80593280"/>
+        <c:crossAx val="69231360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80593280"/>
+        <c:axId val="69231360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80578816"/>
+        <c:crossAx val="69216896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -15546,8 +15479,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80635008"/>
-        <c:axId val="80636928"/>
+        <c:axId val="69613056"/>
+        <c:axId val="69614976"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15860,11 +15793,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="80657408"/>
-        <c:axId val="80655488"/>
+        <c:axId val="69627264"/>
+        <c:axId val="69625344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80635008"/>
+        <c:axId val="69613056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15887,12 +15820,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80636928"/>
+        <c:crossAx val="69614976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80636928"/>
+        <c:axId val="69614976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15917,12 +15850,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80635008"/>
+        <c:crossAx val="69613056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80655488"/>
+        <c:axId val="69625344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15946,19 +15879,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80657408"/>
+        <c:crossAx val="69627264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80657408"/>
+        <c:axId val="69627264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80655488"/>
+        <c:crossAx val="69625344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16374,25 +16307,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="80742272"/>
-        <c:axId val="80743808"/>
+        <c:axId val="69728512"/>
+        <c:axId val="69734400"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="80742272"/>
+        <c:axId val="69728512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80743808"/>
+        <c:crossAx val="69734400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80743808"/>
+        <c:axId val="69734400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16400,21 +16333,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80742272"/>
+        <c:crossAx val="69728512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18049,24 +17981,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80856960"/>
-        <c:axId val="80858496"/>
+        <c:axId val="70998272"/>
+        <c:axId val="71016448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="80856960"/>
+        <c:axId val="70998272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80858496"/>
+        <c:crossAx val="71016448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80858496"/>
+        <c:axId val="71016448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18074,21 +18006,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80856960"/>
+        <c:crossAx val="70998272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18427,25 +18358,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81017088"/>
-        <c:axId val="81027072"/>
+        <c:axId val="72145536"/>
+        <c:axId val="72155520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81017088"/>
+        <c:axId val="72145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81027072"/>
+        <c:crossAx val="72155520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81027072"/>
+        <c:axId val="72155520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18453,21 +18384,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81017088"/>
+        <c:crossAx val="72145536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18806,25 +18736,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81057664"/>
-        <c:axId val="81059200"/>
+        <c:axId val="72177920"/>
+        <c:axId val="72192000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81057664"/>
+        <c:axId val="72177920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81059200"/>
+        <c:crossAx val="72192000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81059200"/>
+        <c:axId val="72192000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18832,7 +18762,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81057664"/>
+        <c:crossAx val="72177920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18845,7 +18775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18861,10 +18791,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.6307961504811964E-2"/>
+          <c:x val="7.6307961504811991E-2"/>
           <c:y val="7.4548702245552642E-2"/>
           <c:w val="0.61285783027121665"/>
-          <c:h val="0.89719889180519152"/>
+          <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -20250,24 +20180,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="81160064"/>
-        <c:axId val="81161600"/>
+        <c:axId val="72620288"/>
+        <c:axId val="72630272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81160064"/>
+        <c:axId val="72620288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81161600"/>
+        <c:crossAx val="72630272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81161600"/>
+        <c:axId val="72630272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20275,7 +20205,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81160064"/>
+        <c:crossAx val="72620288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20289,7 +20219,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601049989"/>
+          <c:h val="0.83717191601050034"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -20298,7 +20228,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20685,25 +20615,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81561856"/>
-        <c:axId val="81571840"/>
+        <c:axId val="73296512"/>
+        <c:axId val="73306496"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81561856"/>
+        <c:axId val="73296512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81571840"/>
+        <c:crossAx val="73306496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81571840"/>
+        <c:axId val="73306496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20711,7 +20641,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81561856"/>
+        <c:crossAx val="73296512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20724,7 +20654,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21063,25 +20993,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81749888"/>
-        <c:axId val="81751424"/>
+        <c:axId val="81135872"/>
+        <c:axId val="81154048"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81749888"/>
+        <c:axId val="81135872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81751424"/>
+        <c:crossAx val="81154048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81751424"/>
+        <c:axId val="81154048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21089,7 +21019,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81749888"/>
+        <c:crossAx val="81135872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21102,7 +21032,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21129,7 +21059,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -21324,12 +21253,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65433600"/>
-        <c:axId val="65435520"/>
+        <c:axId val="55496704"/>
+        <c:axId val="55498624"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65433600"/>
+        <c:axId val="55496704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21350,17 +21279,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65435520"/>
+        <c:crossAx val="55498624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65435520"/>
+        <c:axId val="55498624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21382,18 +21310,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65433600"/>
+        <c:crossAx val="55496704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -21423,18 +21349,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$E$8</c:f>
+              <c:f>Gegenüberstellungen!$D$70</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>nFxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$F$7:$O$7</c:f>
+              <c:f>Gegenüberstellungen!$E$69:$N$69</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -21472,39 +21398,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$F$8:$O$8</c:f>
+              <c:f>Gegenüberstellungen!$E$70:$N$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.4156108190858081</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13784048752090203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8247719459969976E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3455741879327438E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0317785885405518E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7527082062880359E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8382310609877344E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13217635278405179</c:v>
+                  <c:v>0.81049999999999989</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.13750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1500000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.26750000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.3745</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.28700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.42800000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12059357552339342</c:v>
+                  <c:v>0.63150000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29073043013509225</c:v>
+                  <c:v>1.1855</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21515,18 +21441,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$E$9</c:f>
+              <c:f>Gegenüberstellungen!$D$71</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nFxx</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$F$7:$O$7</c:f>
+              <c:f>Gegenüberstellungen!$E$69:$N$69</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -21564,64 +21490,248 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$F$9:$O$9</c:f>
+              <c:f>Gegenüberstellungen!$E$71:$N$71</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.502104377476887E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
+                  <c:v>2.4360000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.93500000000000016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.8500000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.42049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.51300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.29799999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.16799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.11216299880154E-2</c:v>
+                  <c:v>1.1964999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10440180478375191</c:v>
+                  <c:v>2.8364999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$D$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$E$69:$N$69</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gegenüberstellungen!$E$72:$N$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5235000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85550000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13650000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1000000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.27749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.33100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.25649999999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.11200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.8039999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$D$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$E$69:$N$69</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gegenüberstellungen!$E$73:$N$73</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-0.66249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7500000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.9999999999999966E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.15649999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.55299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-7.6999999999999985E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81625472"/>
-        <c:axId val="81627008"/>
+        <c:axId val="106922368"/>
+        <c:axId val="106923904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81625472"/>
+        <c:axId val="106922368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81627008"/>
+        <c:crossAx val="106923904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81627008"/>
+        <c:axId val="106923904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21629,7 +21739,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81625472"/>
+        <c:crossAx val="106922368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21642,7 +21752,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21665,88 +21775,76 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$50</c:f>
+              <c:f>Gegenüberstellungen!$E$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>nFxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$49:$M$49</c:f>
+              <c:f>Gegenüberstellungen!$F$104:$M$104</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$50:$M$50</c:f>
+              <c:f>Gegenüberstellungen!$F$105:$M$105</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.27030002823373267</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11573449651772093</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.5587751214146704E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.592389616661136E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.8022547312739773E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8022547312739773E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.4942038071455556E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.1128331324987196</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.83699056096306E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21041062610748731</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.0055000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.4350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.73450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.0590000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.038</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.82850000000000024</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.0150000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.3089999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21757,7 +21855,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$51</c:f>
+              <c:f>Gegenüberstellungen!$E$106</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -21768,102 +21866,250 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$49:$M$49</c:f>
+              <c:f>Gegenüberstellungen!$F$104:$M$104</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$51:$M$51</c:f>
+              <c:f>Gegenüberstellungen!$F$106:$M$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15118479455705683</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212438205E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6501047964198518E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10868956275849763</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.86849999999999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6359999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.91799999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.2384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.0065000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2810000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$E$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$F$104:$M$104</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gegenüberstellungen!$F$107:$M$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-0.91700000000000015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.6639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.71899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.046</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.0555000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.83650000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.4434999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4889999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$E$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Gegenüberstellungen!$F$104:$M$104</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Gegenüberstellungen!$F$108:$M$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-1.1525000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.84150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.84150000000000014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80849999999999989</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.2155</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.4845000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81791232"/>
-        <c:axId val="81801216"/>
+        <c:axId val="59806464"/>
+        <c:axId val="59808000"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81791232"/>
+        <c:axId val="59806464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81801216"/>
+        <c:crossAx val="59808000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81801216"/>
+        <c:axId val="59808000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21871,7 +22117,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81791232"/>
+        <c:crossAx val="59806464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21884,7 +22130,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21907,76 +22153,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$78</c:f>
+              <c:f>Labor!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>Fxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$77:$K$77</c:f>
+              <c:f>Labor!$F$7:$O$7</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$78:$K$78</c:f>
+              <c:f>Labor!$F$8:$O$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.5647378702354083E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13605242797501474</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3319297063512224E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2224212976865143E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2145838663237613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.913997193838137E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18007600734426663</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3542841296881687E-2</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12059357552339342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29073043013509225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21987,101 +22245,113 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$79</c:f>
+              <c:f>Labor!$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nF17</c:v>
+                  <c:v>nFxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$77:$K$77</c:f>
+              <c:f>Labor!$F$7:$O$7</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$79:$K$79</c:f>
+              <c:f>Labor!$F$9:$O$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.42916412024453232</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3937755015363046E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1556132109057396E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0470912231413046E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.7031281229167018E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.6313691777700746E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.5228576916743991E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.3619795444544098E-2</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1583093241261018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.502104377476887E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.11216299880154E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10440180478375191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81826176"/>
-        <c:axId val="81827712"/>
+        <c:axId val="81351424"/>
+        <c:axId val="81352960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81826176"/>
+        <c:axId val="81351424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81827712"/>
+        <c:crossAx val="81352960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81827712"/>
+        <c:axId val="81352960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22089,20 +22359,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81826176"/>
+        <c:crossAx val="81351424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22125,18 +22394,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$107</c:f>
+              <c:f>Labor!$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>F17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$106:$M$106</c:f>
+              <c:f>Labor!$D$49:$M$49</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -22174,39 +22443,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$107:$M$107</c:f>
+              <c:f>Labor!$D$50:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.4156108190858081</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13784048752090203</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.8247719459969976E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.3455741879327438E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0317785885405518E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.7527082062880359E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8382310609877344E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13217635278405179</c:v>
+                  <c:v>0.27030002823373267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11573449651772093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5587751214146704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.592389616661136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4942038071455556E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1128331324987196</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12059357552339342</c:v>
+                  <c:v>7.83699056096306E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.29073043013509225</c:v>
+                  <c:v>0.21041062610748731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22217,18 +22486,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$108</c:f>
+              <c:f>Labor!$C$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nFxx</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$106:$M$106</c:f>
+              <c:f>Labor!$D$49:$M$49</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -22266,64 +22535,64 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$108:$M$108</c:f>
+              <c:f>Labor!$D$51:$M$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.502104377476887E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.11216299880154E-2</c:v>
+                  <c:v>5.6501047964198518E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10440180478375191</c:v>
+                  <c:v>0.10868956275849763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81856768"/>
-        <c:axId val="81862656"/>
+        <c:axId val="81390208"/>
+        <c:axId val="81465728"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81856768"/>
+        <c:axId val="81390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81862656"/>
+        <c:crossAx val="81465728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81862656"/>
+        <c:axId val="81465728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22331,20 +22600,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81856768"/>
+        <c:crossAx val="81390208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22367,18 +22635,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$136</c:f>
+              <c:f>Labor!$C$78</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>F17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$135:$K$135</c:f>
+              <c:f>Labor!$D$77:$K$77</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -22410,33 +22678,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$136:$K$136</c:f>
+              <c:f>Labor!$D$78:$K$78</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.11545307169887575</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17752841989180798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.12218062274830405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16787503132923473</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12310922935727149</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.10328746610114131</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21900547639912823</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.73200079467080714</c:v>
+                  <c:v>9.5647378702354083E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13605242797501474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3319297063512224E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2224212976865143E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2145838663237613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.913997193838137E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18007600734426663</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3542841296881687E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22447,18 +22715,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Labor!$C$137</c:f>
+              <c:f>Labor!$C$79</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nFxx</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Labor!$D$135:$K$135</c:f>
+              <c:f>Labor!$D$77:$K$77</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -22490,58 +22758,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Labor!$D$137:$K$137</c:f>
+              <c:f>Labor!$D$79:$K$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.2843328249831022E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1398475105532781E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5021043774769838E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8265657049165761E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5629674208591006E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.7772572611727619E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2360679774997918E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.3997607590478369E-2</c:v>
+                  <c:v>0.42916412024453232</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3937755015363046E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1556132109057396E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0470912231413046E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7031281229167018E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6313691777700746E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5228576916743991E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.3619795444544098E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="81899904"/>
-        <c:axId val="81901440"/>
+        <c:axId val="81494784"/>
+        <c:axId val="81496320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81899904"/>
+        <c:axId val="81494784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81901440"/>
+        <c:crossAx val="81496320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81901440"/>
+        <c:axId val="81496320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22549,20 +22817,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81899904"/>
+        <c:crossAx val="81494784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22585,18 +22852,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$C$6</c:f>
+              <c:f>Labor!$C$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>Fxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$5:$M$5</c:f>
+              <c:f>Labor!$D$106:$M$106</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -22634,39 +22901,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$D$6:$M$6</c:f>
+              <c:f>Labor!$D$107:$M$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.06</c:v>
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>0.12059357552339342</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1</c:v>
+                  <c:v>0.29073043013509225</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22677,18 +22944,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$C$7</c:f>
+              <c:f>Labor!$C$108</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nF17</c:v>
+                  <c:v>nFxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$5:$M$5</c:f>
+              <c:f>Labor!$D$106:$M$106</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -22726,64 +22993,64 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$D$7:$M$7</c:f>
+              <c:f>Labor!$D$108:$M$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2999999999999999E-2</c:v>
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1583093241261018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.502104377476887E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7E-2</c:v>
+                  <c:v>5.11216299880154E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.06</c:v>
+                  <c:v>0.10440180478375191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="91625344"/>
-        <c:axId val="91626880"/>
+        <c:axId val="81521280"/>
+        <c:axId val="82051456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="91625344"/>
+        <c:axId val="81521280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91626880"/>
+        <c:crossAx val="82051456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91626880"/>
+        <c:axId val="82051456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22791,20 +23058,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91625344"/>
+        <c:crossAx val="81521280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -22827,7 +23093,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$C$30</c:f>
+              <c:f>Labor!$C$136</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22838,77 +23104,65 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$29:$M$29</c:f>
+              <c:f>Labor!$D$135:$K$135</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$D$30:$M$30</c:f>
+              <c:f>Labor!$D$136:$K$136</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.11545307169887575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17752841989180798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12218062274830405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16787503132923473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12310922935727149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10328746610114131</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21900547639912823</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73200079467080714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22919,7 +23173,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$C$31</c:f>
+              <c:f>Labor!$C$137</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -22930,102 +23184,90 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$29:$M$29</c:f>
+              <c:f>Labor!$D$135:$K$135</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$D$31:$M$31</c:f>
+              <c:f>Labor!$D$137:$K$137</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3.2843328249831022E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1398475105532781E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5021043774769838E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8265657049165761E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5629674208591006E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7772572611727619E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2360679774997918E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3997607590478369E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="142905344"/>
-        <c:axId val="142906880"/>
+        <c:axId val="82076416"/>
+        <c:axId val="82077952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="142905344"/>
+        <c:axId val="82076416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142906880"/>
+        <c:crossAx val="82077952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142906880"/>
+        <c:axId val="82077952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23033,20 +23275,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142905344"/>
+        <c:crossAx val="82076416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23069,7 +23310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$55</c:f>
+              <c:f>FehlerVergleich!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23080,65 +23321,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$54:$L$54</c:f>
+              <c:f>FehlerVergleich!$D$5:$M$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$55:$L$55</c:f>
+              <c:f>FehlerVergleich!$D$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0000000000000007E-2</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23149,7 +23402,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$56</c:f>
+              <c:f>FehlerVergleich!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23160,90 +23413,102 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$54:$L$54</c:f>
+              <c:f>FehlerVergleich!$D$5:$M$5</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$56:$L$56</c:f>
+              <c:f>FehlerVergleich!$D$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.1000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2E-2</c:v>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="85744256"/>
-        <c:axId val="91558272"/>
+        <c:axId val="82103296"/>
+        <c:axId val="82522880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="85744256"/>
+        <c:axId val="82103296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91558272"/>
+        <c:crossAx val="82522880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91558272"/>
+        <c:axId val="82522880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23251,20 +23516,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85744256"/>
+        <c:crossAx val="82103296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23287,7 +23551,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$78</c:f>
+              <c:f>FehlerVergleich!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23298,65 +23562,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$77:$L$77</c:f>
+              <c:f>FehlerVergleich!$D$29:$M$29</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$78:$L$78</c:f>
+              <c:f>FehlerVergleich!$D$30:$M$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.06</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.4</c:v>
+                <c:pt idx="9">
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23367,7 +23643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$79</c:f>
+              <c:f>FehlerVergleich!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -23378,90 +23654,102 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$77:$L$77</c:f>
+              <c:f>FehlerVergleich!$D$29:$M$29</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$79:$L$79</c:f>
+              <c:f>FehlerVergleich!$D$31:$M$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1.2E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7000000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1000000000000001E-2</c:v>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="145783424"/>
-        <c:axId val="145842944"/>
+        <c:axId val="82543360"/>
+        <c:axId val="82544896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="145783424"/>
+        <c:axId val="82543360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145842944"/>
+        <c:crossAx val="82544896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145842944"/>
+        <c:axId val="82544896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23469,20 +23757,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145783424"/>
+        <c:crossAx val="82543360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23505,18 +23792,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$104</c:f>
+              <c:f>FehlerVergleich!$D$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>F17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$103:$L$103</c:f>
+              <c:f>FehlerVergleich!$E$54:$L$54</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -23548,33 +23835,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$104:$L$104</c:f>
+              <c:f>FehlerVergleich!$E$55:$L$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>2.7212549969030577E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.1843849852943406E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.879824895830705E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9568524348268672E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.901712363505889E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.4345089230564228E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1620085826271325E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17253424191522312</c:v>
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23585,18 +23872,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>FehlerVergleich!$D$105</c:f>
+              <c:f>FehlerVergleich!$D$56</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nFxx</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>FehlerVergleich!$E$103:$L$103</c:f>
+              <c:f>FehlerVergleich!$E$54:$L$54</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -23628,58 +23915,58 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>FehlerVergleich!$E$105:$L$105</c:f>
+              <c:f>FehlerVergleich!$E$56:$L$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7.343991457396136E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7848444950808278E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5948754748383293E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3203930590630753E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.9670373546580509E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.2101360269871822E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.0000000000000044E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.8381641419670353E-3</c:v>
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="144621952"/>
-        <c:axId val="145960960"/>
+        <c:axId val="82856576"/>
+        <c:axId val="82862464"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="144621952"/>
+        <c:axId val="82856576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="145960960"/>
+        <c:crossAx val="82862464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="145960960"/>
+        <c:axId val="82862464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23687,20 +23974,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144621952"/>
+        <c:crossAx val="82856576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -23726,7 +24012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -25413,11 +25698,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="65627264"/>
-        <c:axId val="65629184"/>
+        <c:axId val="60478592"/>
+        <c:axId val="60480512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="65627264"/>
+        <c:axId val="60478592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25438,17 +25723,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65629184"/>
+        <c:crossAx val="60480512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65629184"/>
+        <c:axId val="60480512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25470,18 +25754,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65627264"/>
+        <c:crossAx val="60478592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25494,14 +25776,446 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerVergleich!$D$78</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerVergleich!$E$77:$L$77</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerVergleich!$E$78:$L$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerVergleich!$D$79</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerVergleich!$E$77:$L$77</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerVergleich!$E$79:$L$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="82883328"/>
+        <c:axId val="82884864"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="82883328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82884864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82884864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82883328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerVergleich!$D$104</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerVergleich!$E$103:$L$103</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerVergleich!$E$104:$L$104</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.7212549969030577E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1843849852943406E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.879824895830705E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9568524348268672E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.901712363505889E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4345089230564228E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1620085826271325E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17253424191522312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerVergleich!$D$105</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerVergleich!$E$103:$L$103</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerVergleich!$E$105:$L$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>7.343991457396136E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7848444950808278E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5948754748383293E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3203930590630753E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9670373546580509E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2101360269871822E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.0000000000000044E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8381641419670353E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="82913920"/>
+        <c:axId val="82923904"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="82913920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82923904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82923904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82913920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -25591,12 +26305,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="65721088"/>
-        <c:axId val="65723008"/>
+        <c:axId val="61752064"/>
+        <c:axId val="61753984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65721088"/>
+        <c:axId val="61752064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25617,17 +26331,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65723008"/>
+        <c:crossAx val="61753984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65723008"/>
+        <c:axId val="61753984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25649,18 +26362,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65721088"/>
+        <c:crossAx val="61752064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25678,9 +26389,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -25770,12 +26479,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67591168"/>
-        <c:axId val="67609728"/>
+        <c:axId val="61766656"/>
+        <c:axId val="61785216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67591168"/>
+        <c:axId val="61766656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25796,17 +26505,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67609728"/>
+        <c:crossAx val="61785216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67609728"/>
+        <c:axId val="61785216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25828,18 +26536,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67591168"/>
+        <c:crossAx val="61766656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -25879,7 +26585,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -26050,12 +26755,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67712896"/>
-        <c:axId val="67719168"/>
+        <c:axId val="61819136"/>
+        <c:axId val="61837696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67712896"/>
+        <c:axId val="61819136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26076,17 +26781,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67719168"/>
+        <c:crossAx val="61837696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67719168"/>
+        <c:axId val="61837696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26108,18 +26812,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67712896"/>
+        <c:crossAx val="61819136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -26323,12 +27025,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67748992"/>
-        <c:axId val="67750912"/>
+        <c:axId val="67175936"/>
+        <c:axId val="67177856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67748992"/>
+        <c:axId val="67175936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26351,14 +27053,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67750912"/>
+        <c:crossAx val="67177856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67750912"/>
+        <c:axId val="67177856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26383,7 +27085,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67748992"/>
+        <c:crossAx val="67175936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26614,6 +27316,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -28004,17 +28766,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Tabelle14" displayName="Tabelle14" ref="C12:M33" totalsRowCount="1">
   <autoFilter ref="C12:M32"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Spalte1" totalsRowLabel="Mittelwert" totalsRowDxfId="10"/>
-    <tableColumn id="2" name="Spalte2" totalsRowFunction="average" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="Spalte3" totalsRowFunction="average" totalsRowDxfId="8"/>
-    <tableColumn id="4" name="Spalte4" totalsRowFunction="average" totalsRowDxfId="7"/>
-    <tableColumn id="5" name="Spalte5" totalsRowFunction="average" totalsRowDxfId="6"/>
-    <tableColumn id="6" name="Spalte6" totalsRowFunction="average" totalsRowDxfId="5"/>
-    <tableColumn id="12" name="Spalte7" totalsRowFunction="average" totalsRowDxfId="4"/>
-    <tableColumn id="7" name="Spalte8" totalsRowFunction="average" totalsRowDxfId="3"/>
-    <tableColumn id="8" name="Spalte9" totalsRowFunction="average" totalsRowDxfId="2"/>
-    <tableColumn id="9" name="Spalte10" totalsRowFunction="average" totalsRowDxfId="1"/>
-    <tableColumn id="10" name="Spalte11" totalsRowFunction="average" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Spalte1" totalsRowLabel="Mittelwert" totalsRowDxfId="47"/>
+    <tableColumn id="2" name="Spalte2" totalsRowFunction="average" totalsRowDxfId="46"/>
+    <tableColumn id="3" name="Spalte3" totalsRowFunction="average" totalsRowDxfId="45"/>
+    <tableColumn id="4" name="Spalte4" totalsRowFunction="average" totalsRowDxfId="44"/>
+    <tableColumn id="5" name="Spalte5" totalsRowFunction="average" totalsRowDxfId="43"/>
+    <tableColumn id="6" name="Spalte6" totalsRowFunction="average" totalsRowDxfId="42"/>
+    <tableColumn id="12" name="Spalte7" totalsRowFunction="average" totalsRowDxfId="41"/>
+    <tableColumn id="7" name="Spalte8" totalsRowFunction="average" totalsRowDxfId="40"/>
+    <tableColumn id="8" name="Spalte9" totalsRowFunction="average" totalsRowDxfId="39"/>
+    <tableColumn id="9" name="Spalte10" totalsRowFunction="average" totalsRowDxfId="38"/>
+    <tableColumn id="10" name="Spalte11" totalsRowFunction="average" totalsRowDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28024,15 +28786,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabelle1416" displayName="Tabelle1416" ref="C7:K28" totalsRowCount="1">
   <autoFilter ref="C7:K27"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="47"/>
-    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="46"/>
-    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="45"/>
-    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="44"/>
-    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="43"/>
-    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="42"/>
-    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="41"/>
-    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="40"/>
-    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="36"/>
+    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="35"/>
+    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="34"/>
+    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="33"/>
+    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="32"/>
+    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="31"/>
+    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="30"/>
+    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="29"/>
+    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28042,17 +28804,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Tabelle1419" displayName="Tabelle1419" ref="B7:L26" totalsRowCount="1">
   <autoFilter ref="B7:L25"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="38"/>
-    <tableColumn id="2" name="MP1a" totalsRowFunction="average" totalsRowDxfId="37"/>
-    <tableColumn id="3" name="MP2a" totalsRowFunction="average" totalsRowDxfId="36"/>
-    <tableColumn id="4" name="MP3a" totalsRowFunction="average" totalsRowDxfId="35"/>
-    <tableColumn id="5" name="MP4a" totalsRowFunction="average" totalsRowDxfId="34"/>
-    <tableColumn id="6" name="MP5a" totalsRowFunction="average" totalsRowDxfId="33"/>
-    <tableColumn id="12" name="MP6a" totalsRowFunction="average" totalsRowDxfId="32"/>
-    <tableColumn id="7" name="MP7a" totalsRowFunction="average" totalsRowDxfId="31"/>
-    <tableColumn id="8" name="MP8a" totalsRowFunction="average" totalsRowDxfId="30"/>
-    <tableColumn id="9" name="MP9a" totalsRowFunction="average" totalsRowDxfId="29"/>
-    <tableColumn id="10" name="MP10a" totalsRowFunction="average" totalsRowDxfId="28"/>
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="27"/>
+    <tableColumn id="2" name="MP1a" totalsRowFunction="average" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="MP2a" totalsRowFunction="average" totalsRowDxfId="25"/>
+    <tableColumn id="4" name="MP3a" totalsRowFunction="average" totalsRowDxfId="24"/>
+    <tableColumn id="5" name="MP4a" totalsRowFunction="average" totalsRowDxfId="23"/>
+    <tableColumn id="6" name="MP5a" totalsRowFunction="average" totalsRowDxfId="22"/>
+    <tableColumn id="12" name="MP6a" totalsRowFunction="average" totalsRowDxfId="21"/>
+    <tableColumn id="7" name="MP7a" totalsRowFunction="average" totalsRowDxfId="20"/>
+    <tableColumn id="8" name="MP8a" totalsRowFunction="average" totalsRowDxfId="19"/>
+    <tableColumn id="9" name="MP9a" totalsRowFunction="average" totalsRowDxfId="18"/>
+    <tableColumn id="10" name="MP10a" totalsRowFunction="average" totalsRowDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28062,17 +28824,17 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Tabelle1420" displayName="Tabelle1420" ref="C6:M25" totalsRowCount="1">
   <autoFilter ref="C6:M24"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="27"/>
-    <tableColumn id="2" name="MP1b" totalsRowFunction="average" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="25"/>
-    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="24"/>
-    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="23"/>
-    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="22"/>
-    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="21"/>
-    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="20"/>
-    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="19"/>
-    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="18"/>
-    <tableColumn id="10" name="MP10b" totalsRowFunction="average" totalsRowDxfId="17"/>
+    <tableColumn id="1" name="Nr/MP" totalsRowLabel="Mittelw." totalsRowDxfId="16"/>
+    <tableColumn id="2" name="MP1b" totalsRowFunction="average" totalsRowDxfId="15"/>
+    <tableColumn id="3" name="MP2b" totalsRowFunction="average" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="MP3b" totalsRowFunction="average" totalsRowDxfId="13"/>
+    <tableColumn id="5" name="MP4b" totalsRowFunction="average" totalsRowDxfId="12"/>
+    <tableColumn id="6" name="MP5b" totalsRowFunction="average" totalsRowDxfId="11"/>
+    <tableColumn id="12" name="MP6b" totalsRowFunction="average" totalsRowDxfId="10"/>
+    <tableColumn id="7" name="MP7b" totalsRowFunction="average" totalsRowDxfId="9"/>
+    <tableColumn id="8" name="MP8b" totalsRowFunction="average" totalsRowDxfId="8"/>
+    <tableColumn id="9" name="MP9b" totalsRowFunction="average" totalsRowDxfId="7"/>
+    <tableColumn id="10" name="MP10b" totalsRowFunction="average" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -28119,7 +28881,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle610" displayName="Tabelle610" ref="C134:M140" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabelle610" displayName="Tabelle610" ref="C134:M140" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
   <autoFilter ref="C134:M140"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -28139,7 +28901,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle68" displayName="Tabelle68" ref="C43:M49" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabelle68" displayName="Tabelle68" ref="C43:M49" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2">
   <autoFilter ref="C43:M49"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -28159,7 +28921,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C9:M15" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabelle6" displayName="Tabelle6" ref="C9:M15" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="0">
   <autoFilter ref="C9:M15"/>
   <tableColumns count="11">
     <tableColumn id="1" name="Charge"/>
@@ -29885,7 +30647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
@@ -30875,8 +31639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:L29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -31699,8 +32463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -32688,8 +33452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:L36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33513,10 +34277,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="O86" sqref="O86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -33884,6 +34648,341 @@
       </c>
       <c r="L40">
         <v>6.6528585071222071E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" ht="18.75">
+      <c r="F66" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+    </row>
+    <row r="69" spans="4:14">
+      <c r="D69" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K69" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="N69" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14">
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70">
+        <v>0.81049999999999989</v>
+      </c>
+      <c r="F70">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G70">
+        <v>-0.13750000000000001</v>
+      </c>
+      <c r="H70">
+        <v>-2.1500000000000009E-2</v>
+      </c>
+      <c r="I70">
+        <v>-0.26750000000000002</v>
+      </c>
+      <c r="J70">
+        <v>-0.3745</v>
+      </c>
+      <c r="K70">
+        <v>-0.28700000000000003</v>
+      </c>
+      <c r="L70">
+        <v>-0.42800000000000005</v>
+      </c>
+      <c r="M70">
+        <v>0.63150000000000006</v>
+      </c>
+      <c r="N70">
+        <v>1.1855</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14">
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+      <c r="E71">
+        <v>2.4360000000000008</v>
+      </c>
+      <c r="F71">
+        <v>0.93500000000000016</v>
+      </c>
+      <c r="G71">
+        <v>0.21500000000000002</v>
+      </c>
+      <c r="H71">
+        <v>-4.8500000000000022E-2</v>
+      </c>
+      <c r="I71">
+        <v>-0.42049999999999998</v>
+      </c>
+      <c r="J71">
+        <v>-0.51300000000000001</v>
+      </c>
+      <c r="K71">
+        <v>-0.29799999999999993</v>
+      </c>
+      <c r="L71">
+        <v>-0.16799999999999998</v>
+      </c>
+      <c r="M71">
+        <v>1.1964999999999999</v>
+      </c>
+      <c r="N71">
+        <v>2.8364999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="4:14">
+      <c r="D72" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72">
+        <v>2.5235000000000007</v>
+      </c>
+      <c r="F72">
+        <v>0.85550000000000015</v>
+      </c>
+      <c r="G72">
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="H72">
+        <v>-6.1000000000000019E-2</v>
+      </c>
+      <c r="I72">
+        <v>-0.27749999999999997</v>
+      </c>
+      <c r="J72">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="K72">
+        <v>-0.25649999999999995</v>
+      </c>
+      <c r="L72">
+        <v>-0.11200000000000002</v>
+      </c>
+      <c r="M72">
+        <v>1.2879999999999998</v>
+      </c>
+      <c r="N72">
+        <v>3.8039999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14">
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73">
+        <v>-0.66249999999999998</v>
+      </c>
+      <c r="F73">
+        <v>-0.13100000000000001</v>
+      </c>
+      <c r="G73">
+        <v>-0.3805</v>
+      </c>
+      <c r="H73">
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="I73">
+        <v>-3.9999999999999966E-3</v>
+      </c>
+      <c r="J73">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="K73">
+        <v>-0.15649999999999994</v>
+      </c>
+      <c r="L73">
+        <v>-0.55299999999999994</v>
+      </c>
+      <c r="M73">
+        <v>4.0000000000000015E-2</v>
+      </c>
+      <c r="N73">
+        <v>-7.6999999999999985E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:13" ht="21">
+      <c r="D100" s="35"/>
+      <c r="H100" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I100" s="36"/>
+      <c r="J100" s="27"/>
+    </row>
+    <row r="104" spans="4:13">
+      <c r="E104" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H104" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K104" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L104" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M104" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="4:13">
+      <c r="E105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105">
+        <v>-1.0055000000000001</v>
+      </c>
+      <c r="G105">
+        <v>-1.4350000000000001</v>
+      </c>
+      <c r="H105">
+        <v>-0.73450000000000004</v>
+      </c>
+      <c r="I105">
+        <v>-1.0590000000000004</v>
+      </c>
+      <c r="J105">
+        <v>-1.038</v>
+      </c>
+      <c r="K105">
+        <v>-0.82850000000000024</v>
+      </c>
+      <c r="L105">
+        <v>-1.0150000000000001</v>
+      </c>
+      <c r="M105">
+        <v>-1.3089999999999995</v>
+      </c>
+    </row>
+    <row r="106" spans="4:13">
+      <c r="E106" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106">
+        <v>-0.86849999999999983</v>
+      </c>
+      <c r="G106">
+        <v>-1.6359999999999999</v>
+      </c>
+      <c r="H106">
+        <v>-0.91799999999999993</v>
+      </c>
+      <c r="I106">
+        <v>-1.262</v>
+      </c>
+      <c r="J106">
+        <v>-1.2384999999999999</v>
+      </c>
+      <c r="K106">
+        <v>-1.0065000000000002</v>
+      </c>
+      <c r="L106">
+        <v>-1.2810000000000001</v>
+      </c>
+      <c r="M106">
+        <v>-1.27</v>
+      </c>
+    </row>
+    <row r="107" spans="4:13">
+      <c r="E107" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107">
+        <v>-0.91700000000000015</v>
+      </c>
+      <c r="G107">
+        <v>-1.6639999999999997</v>
+      </c>
+      <c r="H107">
+        <v>-0.71899999999999997</v>
+      </c>
+      <c r="I107">
+        <v>-1.046</v>
+      </c>
+      <c r="J107">
+        <v>-1.0555000000000003</v>
+      </c>
+      <c r="K107">
+        <v>-0.83650000000000002</v>
+      </c>
+      <c r="L107">
+        <v>-1.4434999999999998</v>
+      </c>
+      <c r="M107">
+        <v>-1.4889999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="4:13">
+      <c r="E108" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108">
+        <v>-1.1525000000000003</v>
+      </c>
+      <c r="G108">
+        <v>-1.268</v>
+      </c>
+      <c r="H108">
+        <v>-0.63200000000000001</v>
+      </c>
+      <c r="I108">
+        <v>-0.84150000000000014</v>
+      </c>
+      <c r="J108">
+        <v>-0.84150000000000014</v>
+      </c>
+      <c r="K108">
+        <v>-0.80849999999999989</v>
+      </c>
+      <c r="L108">
+        <v>-1.2155</v>
+      </c>
+      <c r="M108">
+        <v>-1.4845000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -33897,7 +34996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O137"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A145" workbookViewId="0">
       <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
@@ -34480,7 +35579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:M105"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -35011,7 +36110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -35019,6 +36118,356 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E6:O46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="6" spans="5:13">
+      <c r="G6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
+      <c r="E8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9">
+        <v>3.2843328249831022E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.1398475105532781E-2</v>
+      </c>
+      <c r="H9">
+        <v>2.5021043774769838E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.8265657049165761E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.5629674208591006E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.7772572611727619E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.2360679774997918E-2</v>
+      </c>
+      <c r="M9">
+        <v>4.3997607590478369E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10">
+        <v>0.42916412024453232</v>
+      </c>
+      <c r="G10">
+        <v>4.3937755015363046E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.1556132109057396E-2</v>
+      </c>
+      <c r="I10">
+        <v>4.0470912231413046E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.7031281229167018E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.6313691777700746E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.5228576916743991E-2</v>
+      </c>
+      <c r="M10">
+        <v>2.3619795444544098E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>3.2783179255607017E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.8601494453955771E-2</v>
+      </c>
+      <c r="H11">
+        <v>3.6548453779663655E-2</v>
+      </c>
+      <c r="I11">
+        <v>4.5929007002226033E-2</v>
+      </c>
+      <c r="J11">
+        <v>4.63936247888935E-2</v>
+      </c>
+      <c r="K11">
+        <v>4.0688159405279978E-2</v>
+      </c>
+      <c r="L11">
+        <v>9.1782064524726467E-2</v>
+      </c>
+      <c r="M11">
+        <v>4.0509907819926597E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12">
+        <v>6.7658196687073693E-2</v>
+      </c>
+      <c r="G12">
+        <v>8.8234138279322999E-2</v>
+      </c>
+      <c r="H12">
+        <v>7.1126277622416065E-2</v>
+      </c>
+      <c r="I12">
+        <v>0.1175394670559189</v>
+      </c>
+      <c r="J12">
+        <v>9.4327257878871848E-2</v>
+      </c>
+      <c r="K12">
+        <v>0.10142536794686986</v>
+      </c>
+      <c r="L12">
+        <v>9.0813574223007329E-2</v>
+      </c>
+      <c r="M12">
+        <v>6.6528585071222071E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15">
+      <c r="E42" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="5:15">
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43">
+        <v>0.12145932825869225</v>
+      </c>
+      <c r="G43">
+        <v>6.6062171674232714E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.1583093241261018</v>
+      </c>
+      <c r="I43">
+        <v>1.4608937423083801E-2</v>
+      </c>
+      <c r="J43">
+        <v>3.8644806282753824E-2</v>
+      </c>
+      <c r="K43">
+        <v>2.502104377476887E-2</v>
+      </c>
+      <c r="L43">
+        <v>1.218281792655454E-2</v>
+      </c>
+      <c r="M43">
+        <v>1.98944583661936E-2</v>
+      </c>
+      <c r="N43">
+        <v>5.11216299880154E-2</v>
+      </c>
+      <c r="O43">
+        <v>0.10440180478375191</v>
+      </c>
+    </row>
+    <row r="44" spans="5:15">
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44">
+        <v>0.15118479455705683</v>
+      </c>
+      <c r="G44">
+        <v>3.7766596212438205E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.3324560249003474E-2</v>
+      </c>
+      <c r="I44">
+        <v>9.3330200448672081E-3</v>
+      </c>
+      <c r="J44">
+        <v>1.6693837501494849E-2</v>
+      </c>
+      <c r="K44">
+        <v>1.922169826551564E-2</v>
+      </c>
+      <c r="L44">
+        <v>1.5423836644690757E-2</v>
+      </c>
+      <c r="M44">
+        <v>2.5874189537269287E-2</v>
+      </c>
+      <c r="N44">
+        <v>5.6501047964198518E-2</v>
+      </c>
+      <c r="O44">
+        <v>0.10868956275849763</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15">
+      <c r="E45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45">
+        <v>5.3437124883263222E-2</v>
+      </c>
+      <c r="G45">
+        <v>3.5758694194927144E-2</v>
+      </c>
+      <c r="H45">
+        <v>3.5729244987382724E-2</v>
+      </c>
+      <c r="I45">
+        <v>4.0249223594996199E-2</v>
+      </c>
+      <c r="J45">
+        <v>8.5092828567889578E-2</v>
+      </c>
+      <c r="K45">
+        <v>4.0509907819926555E-2</v>
+      </c>
+      <c r="L45">
+        <v>2.661123624969116E-2</v>
+      </c>
+      <c r="M45">
+        <v>6.3627203715325875E-2</v>
+      </c>
+      <c r="N45">
+        <v>0.19771324264143297</v>
+      </c>
+      <c r="O45">
+        <v>0.19773453762158261</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15">
+      <c r="E46" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46">
+        <f>STDEV(Tabelle2[MP1a])</f>
+        <v>0.45378959882306691</v>
+      </c>
+      <c r="G46">
+        <f>STDEV(Tabelle2[MP2a])</f>
+        <v>0.12130431501849086</v>
+      </c>
+      <c r="H46">
+        <f>STDEV(Tabelle2[MP3a])</f>
+        <v>6.8092429442401306E-2</v>
+      </c>
+      <c r="I46">
+        <f>STDEV(Tabelle2[MP4a])</f>
+        <v>5.0770380921826529E-2</v>
+      </c>
+      <c r="J46">
+        <f>STDEV(Tabelle2[MP5a])</f>
+        <v>0.10287447640079071</v>
+      </c>
+      <c r="K46">
+        <f>STDEV(Tabelle2[MP6a])</f>
+        <v>0.16392873933190411</v>
+      </c>
+      <c r="L46">
+        <f>STDEV(Tabelle2[MP7a])</f>
+        <v>0.218855275419505</v>
+      </c>
+      <c r="M46">
+        <f>STDEV(Tabelle2[MP8a])</f>
+        <v>0.23452303219850071</v>
+      </c>
+      <c r="N46">
+        <f>STDEV(Tabelle2[MP9a])</f>
+        <v>0.21083792727815212</v>
+      </c>
+      <c r="O46">
+        <f>STDEV(Tabelle2[MP10a])</f>
+        <v>0.43154678955930992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -38388,8 +39837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -39738,7 +41187,7 @@
   <dimension ref="A1:M116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="E26" sqref="E26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -42017,8 +43466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28:N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -43048,43 +44497,43 @@
         <v>52</v>
       </c>
       <c r="E45">
-        <f>STDEVA(E7:E26)</f>
+        <f t="shared" ref="E45:N45" si="2">STDEVA(E7:E26)</f>
         <v>5.3437124883241149E-2</v>
       </c>
       <c r="F45">
-        <f>STDEVA(F7:F26)</f>
+        <f t="shared" si="2"/>
         <v>3.5758694194923508E-2</v>
       </c>
       <c r="G45">
-        <f>STDEVA(G7:G26)</f>
+        <f t="shared" si="2"/>
         <v>3.5729244987382724E-2</v>
       </c>
       <c r="H45">
-        <f>STDEVA(H7:H26)</f>
+        <f t="shared" si="2"/>
         <v>4.0249223594996199E-2</v>
       </c>
       <c r="I45">
-        <f>STDEVA(I7:I26)</f>
+        <f t="shared" si="2"/>
         <v>8.5092828567889578E-2</v>
       </c>
       <c r="J45">
-        <f>STDEVA(J7:J26)</f>
+        <f t="shared" si="2"/>
         <v>4.0509907819926555E-2</v>
       </c>
       <c r="K45">
-        <f>STDEVA(K7:K26)</f>
+        <f t="shared" si="2"/>
         <v>2.661123624969116E-2</v>
       </c>
       <c r="L45">
-        <f>STDEVA(L7:L26)</f>
+        <f t="shared" si="2"/>
         <v>6.3627203715325875E-2</v>
       </c>
       <c r="M45">
-        <f>STDEVA(M7:M26)</f>
+        <f t="shared" si="2"/>
         <v>0.19771324264143297</v>
       </c>
       <c r="N45">
-        <f>STDEVA(N7:N26)</f>
+        <f t="shared" si="2"/>
         <v>0.19773453762158438</v>
       </c>
     </row>
@@ -43240,7 +44689,7 @@
   <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="D26" sqref="D26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="12" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="136">
   <si>
     <t>MP1a</t>
   </si>
@@ -471,12 +471,6 @@
   </si>
   <si>
     <t>F19 Spalt innen digital vermessen</t>
-  </si>
-  <si>
-    <t>Standardabw. Kontur aussen</t>
-  </si>
-  <si>
-    <t>Kontur aussen Fräs</t>
   </si>
   <si>
     <t>max Range</t>
@@ -1813,12 +1807,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="60319616"/>
-        <c:axId val="60338560"/>
+        <c:axId val="58363904"/>
+        <c:axId val="58365824"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="60319616"/>
+        <c:axId val="58363904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,14 +1836,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60338560"/>
+        <c:crossAx val="58365824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="60338560"/>
+        <c:axId val="58365824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1868,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60319616"/>
+        <c:crossAx val="58363904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,7 +1911,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799662"/>
+          <c:x val="0.34048408325799689"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3367,11 +3361,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66844160"/>
-        <c:axId val="66846080"/>
+        <c:axId val="67661184"/>
+        <c:axId val="67671552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66844160"/>
+        <c:axId val="67661184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3392,17 +3386,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66846080"/>
+        <c:crossAx val="67671552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66846080"/>
+        <c:axId val="67671552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,18 +3417,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66844160"/>
+        <c:crossAx val="67661184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3555,12 +3546,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66945792"/>
-        <c:axId val="66947712"/>
+        <c:axId val="67832448"/>
+        <c:axId val="67851008"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66945792"/>
+        <c:axId val="67832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,14 +3574,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66947712"/>
+        <c:crossAx val="67851008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66947712"/>
+        <c:axId val="67851008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,7 +3606,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66945792"/>
+        <c:crossAx val="67832448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3741,12 +3732,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66968576"/>
-        <c:axId val="68052096"/>
+        <c:axId val="67884160"/>
+        <c:axId val="67886080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66968576"/>
+        <c:axId val="67884160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3769,14 +3760,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68052096"/>
+        <c:crossAx val="67886080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68052096"/>
+        <c:axId val="67886080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +3792,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66968576"/>
+        <c:crossAx val="67884160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4035,12 +4026,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68069632"/>
-        <c:axId val="68075904"/>
+        <c:axId val="67924352"/>
+        <c:axId val="67926272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68069632"/>
+        <c:axId val="67924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4063,14 +4054,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68075904"/>
+        <c:crossAx val="67926272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68075904"/>
+        <c:axId val="67926272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4095,7 +4086,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68069632"/>
+        <c:crossAx val="67924352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4329,12 +4320,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69158400"/>
-        <c:axId val="69160320"/>
+        <c:axId val="67943808"/>
+        <c:axId val="67950080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69158400"/>
+        <c:axId val="67943808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4357,14 +4348,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69160320"/>
+        <c:crossAx val="67950080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69160320"/>
+        <c:axId val="67950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4389,7 +4380,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69158400"/>
+        <c:crossAx val="67943808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5946,11 +5937,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69256320"/>
-        <c:axId val="69258240"/>
+        <c:axId val="68066304"/>
+        <c:axId val="68076672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69256320"/>
+        <c:axId val="68066304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5973,14 +5964,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69258240"/>
+        <c:crossAx val="68076672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69258240"/>
+        <c:axId val="68076672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6005,7 +5996,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69256320"/>
+        <c:crossAx val="68066304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6029,9 +6020,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -6133,12 +6122,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69431680"/>
-        <c:axId val="69433600"/>
+        <c:axId val="68147456"/>
+        <c:axId val="68366720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69431680"/>
+        <c:axId val="68147456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6159,17 +6148,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69433600"/>
+        <c:crossAx val="68366720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69433600"/>
+        <c:axId val="68366720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6191,18 +6179,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69431680"/>
+        <c:crossAx val="68147456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6220,9 +6206,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -6324,12 +6308,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69483136"/>
-        <c:axId val="69485312"/>
+        <c:axId val="68408064"/>
+        <c:axId val="68409984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69483136"/>
+        <c:axId val="68408064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6350,17 +6334,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69485312"/>
+        <c:crossAx val="68409984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69485312"/>
+        <c:axId val="68409984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6382,18 +6365,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69483136"/>
+        <c:crossAx val="68408064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6433,7 +6414,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -6604,12 +6584,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69502848"/>
-        <c:axId val="69525504"/>
+        <c:axId val="68435968"/>
+        <c:axId val="68437888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69502848"/>
+        <c:axId val="68435968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6630,17 +6610,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69525504"/>
+        <c:crossAx val="68437888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69525504"/>
+        <c:axId val="68437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6662,18 +6641,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69502848"/>
+        <c:crossAx val="68435968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6877,12 +6854,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69555328"/>
-        <c:axId val="69557248"/>
+        <c:axId val="68480000"/>
+        <c:axId val="68498560"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69555328"/>
+        <c:axId val="68480000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6905,14 +6882,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69557248"/>
+        <c:crossAx val="68498560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69557248"/>
+        <c:axId val="68498560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6937,7 +6914,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69555328"/>
+        <c:crossAx val="68480000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7063,12 +7040,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61817600"/>
-        <c:axId val="61819520"/>
+        <c:axId val="58386688"/>
+        <c:axId val="58270080"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61817600"/>
+        <c:axId val="58386688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,14 +7069,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61819520"/>
+        <c:crossAx val="58270080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61819520"/>
+        <c:axId val="58270080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7124,7 +7101,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61817600"/>
+        <c:crossAx val="58386688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8627,11 +8604,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69612288"/>
-        <c:axId val="69614208"/>
+        <c:axId val="68340352"/>
+        <c:axId val="68342528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69612288"/>
+        <c:axId val="68340352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8654,14 +8631,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69614208"/>
+        <c:crossAx val="68342528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69614208"/>
+        <c:axId val="68342528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8686,7 +8663,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69612288"/>
+        <c:crossAx val="68340352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8844,12 +8821,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70823936"/>
-        <c:axId val="70825856"/>
+        <c:axId val="68843392"/>
+        <c:axId val="68870144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70823936"/>
+        <c:axId val="68843392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8872,14 +8849,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70825856"/>
+        <c:crossAx val="68870144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70825856"/>
+        <c:axId val="68870144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8904,7 +8881,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70823936"/>
+        <c:crossAx val="68843392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8958,7 +8935,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1593403324584442"/>
+          <c:x val="0.15934033245844431"/>
           <c:y val="5.5555555555555455E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9064,12 +9041,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="69654784"/>
-        <c:axId val="70865280"/>
+        <c:axId val="70992256"/>
+        <c:axId val="70994176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="69654784"/>
+        <c:axId val="70992256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9092,14 +9069,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70865280"/>
+        <c:crossAx val="70994176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70865280"/>
+        <c:axId val="70994176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9124,7 +9101,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69654784"/>
+        <c:crossAx val="70992256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9178,7 +9155,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.6599518810148819E-2"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.61978937007874324"/>
+          <c:w val="0.61978937007874346"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -10805,11 +10782,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="72306048"/>
-        <c:axId val="72328704"/>
+        <c:axId val="71042560"/>
+        <c:axId val="71044480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72306048"/>
+        <c:axId val="71042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10832,14 +10809,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72328704"/>
+        <c:crossAx val="71044480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72328704"/>
+        <c:axId val="71044480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10864,7 +10841,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72306048"/>
+        <c:crossAx val="71042560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11200,12 +11177,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="72351104"/>
-        <c:axId val="72431104"/>
+        <c:axId val="71075328"/>
+        <c:axId val="71077248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="72351104"/>
+        <c:axId val="71075328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11228,14 +11205,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72431104"/>
+        <c:crossAx val="71077248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72431104"/>
+        <c:axId val="71077248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11260,7 +11237,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72351104"/>
+        <c:crossAx val="71075328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11586,12 +11563,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="72473984"/>
-        <c:axId val="72476160"/>
+        <c:axId val="71198208"/>
+        <c:axId val="71200128"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="72473984"/>
+        <c:axId val="71198208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11614,14 +11591,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72476160"/>
+        <c:crossAx val="71200128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72476160"/>
+        <c:axId val="71200128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11646,7 +11623,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72473984"/>
+        <c:crossAx val="71198208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11686,7 +11663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -11789,12 +11765,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73574656"/>
-        <c:axId val="73580928"/>
+        <c:axId val="73679232"/>
+        <c:axId val="73681152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73574656"/>
+        <c:axId val="73679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11815,17 +11791,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73580928"/>
+        <c:crossAx val="73681152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73580928"/>
+        <c:axId val="73681152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11847,18 +11822,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73574656"/>
+        <c:crossAx val="73679232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -11898,7 +11871,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -12001,12 +11973,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73614080"/>
-        <c:axId val="73616000"/>
+        <c:axId val="73718400"/>
+        <c:axId val="73605888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73614080"/>
+        <c:axId val="73718400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12027,17 +11999,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73616000"/>
+        <c:crossAx val="73605888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73616000"/>
+        <c:axId val="73605888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12059,18 +12030,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73614080"/>
+        <c:crossAx val="73718400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12104,7 +12073,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -12355,12 +12323,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73655040"/>
-        <c:axId val="73656960"/>
+        <c:axId val="73640576"/>
+        <c:axId val="73646848"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73655040"/>
+        <c:axId val="73640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12381,17 +12349,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73656960"/>
+        <c:crossAx val="73646848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73656960"/>
+        <c:axId val="73646848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12413,18 +12380,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73655040"/>
+        <c:crossAx val="73640576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -12708,12 +12673,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73696000"/>
-        <c:axId val="73697920"/>
+        <c:axId val="73759360"/>
+        <c:axId val="73765632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73696000"/>
+        <c:axId val="73759360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12736,14 +12701,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73697920"/>
+        <c:crossAx val="73765632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73697920"/>
+        <c:axId val="73765632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12768,7 +12733,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73696000"/>
+        <c:crossAx val="73759360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13002,12 +12967,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61853696"/>
-        <c:axId val="61855616"/>
+        <c:axId val="58312192"/>
+        <c:axId val="58314112"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61853696"/>
+        <c:axId val="58312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13030,14 +12995,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61855616"/>
+        <c:crossAx val="58314112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61855616"/>
+        <c:axId val="58314112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13062,7 +13027,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61853696"/>
+        <c:crossAx val="58312192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13101,7 +13066,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -13111,8 +13075,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
-          <c:w val="0.77271636572475055"/>
-          <c:h val="0.84410365656348463"/>
+          <c:w val="0.77271636572475033"/>
+          <c:h val="0.84410365656348507"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14738,11 +14702,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73955200"/>
-        <c:axId val="73977856"/>
+        <c:axId val="73805824"/>
+        <c:axId val="73807744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73955200"/>
+        <c:axId val="73805824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14763,17 +14727,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73977856"/>
+        <c:crossAx val="73807744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73977856"/>
+        <c:axId val="73807744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14795,18 +14758,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73955200"/>
+        <c:crossAx val="73805824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -15164,8 +15125,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75466240"/>
-        <c:axId val="75468160"/>
+        <c:axId val="68177280"/>
+        <c:axId val="68191744"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15474,11 +15435,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="75488640"/>
-        <c:axId val="75486720"/>
+        <c:axId val="68195840"/>
+        <c:axId val="68193664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75466240"/>
+        <c:axId val="68177280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15501,12 +15462,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75468160"/>
+        <c:crossAx val="68191744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75468160"/>
+        <c:axId val="68191744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15531,12 +15492,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75466240"/>
+        <c:crossAx val="68177280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75486720"/>
+        <c:axId val="68193664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15560,19 +15521,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75488640"/>
+        <c:crossAx val="68195840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75488640"/>
+        <c:axId val="68195840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="75486720"/>
+        <c:crossAx val="68193664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15928,8 +15889,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69386624"/>
-        <c:axId val="69388544"/>
+        <c:axId val="74344704"/>
+        <c:axId val="74346880"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -16242,11 +16203,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="69392640"/>
-        <c:axId val="69390720"/>
+        <c:axId val="74355072"/>
+        <c:axId val="74348800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69386624"/>
+        <c:axId val="74344704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16269,12 +16230,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69388544"/>
+        <c:crossAx val="74346880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69388544"/>
+        <c:axId val="74346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16299,12 +16260,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69386624"/>
+        <c:crossAx val="74344704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69390720"/>
+        <c:axId val="74348800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16328,19 +16289,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69392640"/>
+        <c:crossAx val="74355072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69392640"/>
+        <c:axId val="74355072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69390720"/>
+        <c:crossAx val="74348800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16756,25 +16717,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75920512"/>
-        <c:axId val="75922048"/>
+        <c:axId val="74308608"/>
+        <c:axId val="74453760"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75920512"/>
+        <c:axId val="74308608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75922048"/>
+        <c:crossAx val="74453760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75922048"/>
+        <c:axId val="74453760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16782,7 +16743,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75920512"/>
+        <c:crossAx val="74308608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18430,24 +18391,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75969664"/>
-        <c:axId val="75971200"/>
+        <c:axId val="74550272"/>
+        <c:axId val="74564352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75969664"/>
+        <c:axId val="74550272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75971200"/>
+        <c:crossAx val="74564352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75971200"/>
+        <c:axId val="74564352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18455,7 +18416,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75969664"/>
+        <c:crossAx val="74550272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18807,25 +18768,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76113408"/>
-        <c:axId val="76114944"/>
+        <c:axId val="75074944"/>
+        <c:axId val="75084928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76113408"/>
+        <c:axId val="75074944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76114944"/>
+        <c:crossAx val="75084928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76114944"/>
+        <c:axId val="75084928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18833,14 +18794,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76113408"/>
+        <c:crossAx val="75074944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -19186,25 +19146,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76158080"/>
-        <c:axId val="76159616"/>
+        <c:axId val="75111424"/>
+        <c:axId val="75133696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76158080"/>
+        <c:axId val="75111424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76159616"/>
+        <c:crossAx val="75133696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76159616"/>
+        <c:axId val="75133696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19212,14 +19172,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76158080"/>
+        <c:crossAx val="75111424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -20631,24 +20590,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76256384"/>
-        <c:axId val="76257920"/>
+        <c:axId val="75222016"/>
+        <c:axId val="75232000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76256384"/>
+        <c:axId val="75222016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76257920"/>
+        <c:crossAx val="75232000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76257920"/>
+        <c:axId val="75232000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20656,7 +20615,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76256384"/>
+        <c:crossAx val="75222016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20670,7 +20629,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050311"/>
+          <c:h val="0.83717191601050356"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -21066,25 +21025,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76674560"/>
-        <c:axId val="76676096"/>
+        <c:axId val="75410816"/>
+        <c:axId val="75416704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76674560"/>
+        <c:axId val="75410816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76676096"/>
+        <c:crossAx val="75416704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76676096"/>
+        <c:axId val="75416704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21092,7 +21051,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76674560"/>
+        <c:crossAx val="75410816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21444,25 +21403,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76792960"/>
-        <c:axId val="76794496"/>
+        <c:axId val="75443200"/>
+        <c:axId val="75453184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76792960"/>
+        <c:axId val="75443200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76794496"/>
+        <c:crossAx val="75453184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76794496"/>
+        <c:axId val="75453184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21470,7 +21429,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76792960"/>
+        <c:crossAx val="75443200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21704,12 +21663,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="61881344"/>
-        <c:axId val="61895808"/>
+        <c:axId val="58405632"/>
+        <c:axId val="58407552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="61881344"/>
+        <c:axId val="58405632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21732,14 +21691,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61895808"/>
+        <c:crossAx val="58407552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61895808"/>
+        <c:axId val="58407552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21764,7 +21723,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61881344"/>
+        <c:crossAx val="58405632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21980,25 +21939,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76864896"/>
-        <c:axId val="76547200"/>
+        <c:axId val="75507200"/>
+        <c:axId val="75508736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76864896"/>
+        <c:axId val="75507200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76547200"/>
+        <c:crossAx val="75508736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76547200"/>
+        <c:axId val="75508736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22006,7 +21965,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76864896"/>
+        <c:crossAx val="75507200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22222,25 +22181,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76572160"/>
-        <c:axId val="76573696"/>
+        <c:axId val="75537792"/>
+        <c:axId val="75543680"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76572160"/>
+        <c:axId val="75537792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76573696"/>
+        <c:crossAx val="75543680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76573696"/>
+        <c:axId val="75543680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22248,7 +22207,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76572160"/>
+        <c:crossAx val="75537792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22440,25 +22399,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76606848"/>
-        <c:axId val="76883072"/>
+        <c:axId val="75699712"/>
+        <c:axId val="75701248"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76606848"/>
+        <c:axId val="75699712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76883072"/>
+        <c:crossAx val="75701248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76883072"/>
+        <c:axId val="75701248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22466,7 +22425,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76606848"/>
+        <c:crossAx val="75699712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22682,25 +22641,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76899840"/>
-        <c:axId val="76901376"/>
+        <c:axId val="75718016"/>
+        <c:axId val="75740288"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76899840"/>
+        <c:axId val="75718016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76901376"/>
+        <c:crossAx val="75740288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76901376"/>
+        <c:axId val="75740288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22708,14 +22667,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76899840"/>
+        <c:crossAx val="75718016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -22901,25 +22859,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76938624"/>
-        <c:axId val="82322560"/>
+        <c:axId val="75830784"/>
+        <c:axId val="75832320"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76938624"/>
+        <c:axId val="75830784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82322560"/>
+        <c:crossAx val="75832320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82322560"/>
+        <c:axId val="75832320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22927,7 +22885,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76938624"/>
+        <c:crossAx val="75830784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23143,25 +23101,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82376576"/>
-        <c:axId val="82378112"/>
+        <c:axId val="75776000"/>
+        <c:axId val="75777536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82376576"/>
+        <c:axId val="75776000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82378112"/>
+        <c:crossAx val="75777536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82378112"/>
+        <c:axId val="75777536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23169,7 +23127,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82376576"/>
+        <c:crossAx val="75776000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23385,25 +23343,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82410880"/>
-        <c:axId val="82412672"/>
+        <c:axId val="75814400"/>
+        <c:axId val="75815936"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82410880"/>
+        <c:axId val="75814400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82412672"/>
+        <c:crossAx val="75815936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82412672"/>
+        <c:axId val="75815936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23411,7 +23369,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82410880"/>
+        <c:crossAx val="75814400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23603,25 +23561,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82441728"/>
-        <c:axId val="82443264"/>
+        <c:axId val="75922816"/>
+        <c:axId val="75928704"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82441728"/>
+        <c:axId val="75922816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82443264"/>
+        <c:crossAx val="75928704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82443264"/>
+        <c:axId val="75928704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23629,7 +23587,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82441728"/>
+        <c:crossAx val="75922816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23821,25 +23779,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82460032"/>
-        <c:axId val="82470016"/>
+        <c:axId val="75949568"/>
+        <c:axId val="75951104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82460032"/>
+        <c:axId val="75949568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82470016"/>
+        <c:crossAx val="75951104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82470016"/>
+        <c:axId val="75951104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23847,7 +23805,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82460032"/>
+        <c:crossAx val="75949568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24039,25 +23997,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82511360"/>
-        <c:axId val="82512896"/>
+        <c:axId val="76057984"/>
+        <c:axId val="76059776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82511360"/>
+        <c:axId val="76057984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82512896"/>
+        <c:crossAx val="76059776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82512896"/>
+        <c:axId val="76059776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24065,7 +24023,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82511360"/>
+        <c:crossAx val="76057984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25790,11 +25748,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66429312"/>
-        <c:axId val="66431232"/>
+        <c:axId val="59389824"/>
+        <c:axId val="59400192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66429312"/>
+        <c:axId val="59389824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25817,14 +25775,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66431232"/>
+        <c:crossAx val="59400192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66431232"/>
+        <c:axId val="59400192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25849,7 +25807,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66429312"/>
+        <c:crossAx val="59389824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25889,6 +25847,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -25991,25 +25950,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82898944"/>
-        <c:axId val="82900480"/>
+        <c:axId val="77420032"/>
+        <c:axId val="77421568"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82898944"/>
+        <c:axId val="77420032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82900480"/>
+        <c:crossAx val="77421568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82900480"/>
+        <c:axId val="77421568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26017,13 +25976,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82898944"/>
+        <c:crossAx val="77420032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -26057,6 +26017,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -26159,25 +26120,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82929152"/>
-        <c:axId val="82930688"/>
+        <c:axId val="77442048"/>
+        <c:axId val="77460224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82929152"/>
+        <c:axId val="77442048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82930688"/>
+        <c:crossAx val="77460224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82930688"/>
+        <c:axId val="77460224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26185,13 +26146,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82929152"/>
+        <c:crossAx val="77442048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -27841,24 +27803,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82987648"/>
-        <c:axId val="82998016"/>
+        <c:axId val="77513088"/>
+        <c:axId val="77515008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82987648"/>
+        <c:axId val="77513088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82998016"/>
+        <c:crossAx val="77515008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82998016"/>
+        <c:axId val="77515008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27866,7 +27828,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82987648"/>
+        <c:crossAx val="77513088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27886,6 +27848,7 @@
           </a:p>
         </c:txPr>
       </c:legendEntry>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
@@ -27899,187 +27862,6 @@
 </file>
 
 <file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Kontur aussen Fräs</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$D$203</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nFxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$E$200:$N$200</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$E$201:$N$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21902355076446389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$D$204</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$E$200:$N$200</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$E$202:$N$202</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="83167488"/>
-        <c:axId val="83193856"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="83167488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83193856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83193856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83167488"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -28332,25 +28114,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="83228160"/>
-        <c:axId val="83229696"/>
+        <c:axId val="77618176"/>
+        <c:axId val="77628160"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="83228160"/>
+        <c:axId val="77618176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83229696"/>
+        <c:crossAx val="77628160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83229696"/>
+        <c:axId val="77628160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28358,13 +28140,271 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83228160"/>
+        <c:crossAx val="77618176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vergleich Range Fräsen Fxx, F17, F18</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$E$273</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$F$270:$O$270</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$F$271:$O$271</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$E$274</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$F$270:$O$270</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$F$272:$O$272</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76000000000000023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$E$275</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$F$270:$O$270</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$F$273:$O$273</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3999999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="77653888"/>
+        <c:axId val="77655424"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="77653888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77655424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77655424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77653888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -28392,266 +28432,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vergleich Range Fräsen Fxx, F17, F18</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$273</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$271:$O$271</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$274</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$272:$O$272</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76000000000000023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$275</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$273:$O$273</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3999999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="83140992"/>
-        <c:axId val="83142528"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="83140992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83142528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="83142528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83140992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>nStandardab. Kontur alle Materialien</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -28815,7 +28601,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
+                  <c:v>2.7772572611727615E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083801E-2</c:v>
@@ -29118,24 +28904,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83243776"/>
-        <c:axId val="83245312"/>
+        <c:axId val="77703424"/>
+        <c:axId val="77717504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83243776"/>
+        <c:axId val="77703424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83245312"/>
+        <c:crossAx val="77717504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83245312"/>
+        <c:axId val="77717504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29143,25 +28929,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83243776"/>
+        <c:crossAx val="77703424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29194,6 +28981,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -29357,7 +29145,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
+                  <c:v>2.7772572611727615E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083801E-2</c:v>
@@ -29476,24 +29264,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83288064"/>
-        <c:axId val="83289600"/>
+        <c:axId val="77739520"/>
+        <c:axId val="77741056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83288064"/>
+        <c:axId val="77739520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83289600"/>
+        <c:crossAx val="77741056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83289600"/>
+        <c:axId val="77741056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29501,19 +29289,275 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83288064"/>
+        <c:crossAx val="77739520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>nStandardab Kontur F13 vs F17</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="77782016"/>
+        <c:axId val="77800192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77782016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77800192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77800192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77782016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -29534,11 +29578,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>nStandardab Kontur F13 vs F17</a:t>
+              <a:t>nStandardab. Kontur F17 vs Fxx</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -29550,11 +29595,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$90</c:f>
+              <c:f>'F19'!$C$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F13</c:v>
+                  <c:v>Fxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -29599,39 +29644,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:f>'F19'!$D$91:$M$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
+                  <c:v>5.1121629988015636E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
+                  <c:v>0.1044018047837549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29729,24 +29774,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84579840"/>
-        <c:axId val="84581376"/>
+        <c:axId val="77833344"/>
+        <c:axId val="77834880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84579840"/>
+        <c:axId val="77833344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84581376"/>
+        <c:crossAx val="77834880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84581376"/>
+        <c:axId val="77834880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29754,19 +29799,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84579840"/>
+        <c:crossAx val="77833344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -29787,27 +29833,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>nStandardab. Kontur F17 vs Fxx</a:t>
+              <a:t>Kontur Standardab F13 vs F17</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$91</c:f>
+              <c:f>'F19'!$C$90</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fxx</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -29852,39 +29898,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$91:$M$91</c:f>
+              <c:f>'F19'!$D$90:$M$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5021043774769821E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1121629988015636E-2</c:v>
+                  <c:v>5.0147151884282058E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1044018047837549</c:v>
+                  <c:v>0.10668571650067847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29982,24 +30028,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84606336"/>
-        <c:axId val="89142400"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:axId val="77847552"/>
+        <c:axId val="77878016"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="84606336"/>
+        <c:axId val="77847552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89142400"/>
+        <c:crossAx val="77878016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89142400"/>
+        <c:axId val="77878016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30007,19 +30054,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84606336"/>
+        <c:crossAx val="77847552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -30030,9 +30078,7 @@
   <c:lang val="de-DE"/>
   <c:style val="8"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -30122,12 +30168,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66670592"/>
-        <c:axId val="66672512"/>
+        <c:axId val="59553280"/>
+        <c:axId val="59555200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66670592"/>
+        <c:axId val="59553280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30148,17 +30194,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66672512"/>
+        <c:crossAx val="59555200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66672512"/>
+        <c:axId val="59555200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30180,18 +30225,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66670592"/>
+        <c:crossAx val="59553280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -30219,11 +30262,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Kontur Standardab F13 vs F17</a:t>
+              <a:t>Vergl. Standardab. Fräs Kontur</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -30234,88 +30278,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$90</c:f>
+              <c:f>[1]Vergl.Fäs!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F13</c:v>
+                  <c:v>nF13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
+                  <c:v>0.26684117097313848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
+                  <c:v>0.18101759146848873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30326,112 +30370,112 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$92</c:f>
+              <c:f>[1]Vergl.Fäs!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:f>[1]Vergl.Fäs!$D$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212442591E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6501047964198262E-2</c:v>
+                  <c:v>0.23059362751956444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848922</c:v>
+                  <c:v>0.21598915664790441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89085440"/>
-        <c:axId val="89086976"/>
+        <c:axId val="77907456"/>
+        <c:axId val="77908992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89085440"/>
+        <c:axId val="77907456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89086976"/>
+        <c:crossAx val="77908992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89086976"/>
+        <c:axId val="77908992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30439,19 +30483,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89085440"/>
+        <c:crossAx val="77907456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -30472,11 +30517,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vergl. Standardab. Fräs Kontur</a:t>
+              <a:t>Kontur Standardab. F17 vs Fxx</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -30487,11 +30533,266 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>[1]Vergl.Fäs!$C$6</c:f>
+              <c:f>'F19'!$C$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nF13</c:v>
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$91:$M$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="77925760"/>
+        <c:axId val="77952128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="77925760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77952128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77952128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77925760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Standardab.Fräs nFxx vs nF17</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -30536,39 +30837,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:f>[1]Vergl.Fäs!$D$7:$M$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.24575126492151839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27095348212134901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19027611515899726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9841477024816312E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3597502097958335E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8335397241649171E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1834274809261667E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14628289103831021</c:v>
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.26684117097313848</c:v>
+                  <c:v>0.19285664160335861</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18101759146848873</c:v>
+                  <c:v>0.21902355076446389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -30667,24 +30968,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89194496"/>
-        <c:axId val="89196032"/>
+        <c:axId val="123926016"/>
+        <c:axId val="123927552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89194496"/>
+        <c:axId val="123926016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89196032"/>
+        <c:crossAx val="123927552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89196032"/>
+        <c:axId val="123927552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30692,25 +30993,26 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89194496"/>
+        <c:crossAx val="123926016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -31205,25 +31507,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="89407488"/>
-        <c:axId val="89409024"/>
+        <c:axId val="78024064"/>
+        <c:axId val="78029952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="89407488"/>
+        <c:axId val="78024064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89409024"/>
+        <c:crossAx val="78029952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89409024"/>
+        <c:axId val="78029952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31231,7 +31533,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89407488"/>
+        <c:crossAx val="78024064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31250,7 +31552,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -31564,25 +31866,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="89435136"/>
-        <c:axId val="89449216"/>
+        <c:axId val="78199424"/>
+        <c:axId val="78213504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="89435136"/>
+        <c:axId val="78199424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89449216"/>
+        <c:crossAx val="78213504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89449216"/>
+        <c:axId val="78213504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31590,7 +31892,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89435136"/>
+        <c:crossAx val="78199424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31609,7 +31911,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -32095,7 +32397,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="plus"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000133"/>
+            <c:val val="0.75000000000000155"/>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -32176,37 +32478,38 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="89465984"/>
-        <c:axId val="89467520"/>
+        <c:axId val="78168832"/>
+        <c:axId val="78170368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89465984"/>
+        <c:axId val="78168832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89467520"/>
+        <c:crossAx val="78170368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89467520"/>
+        <c:axId val="78170368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89465984"/>
+        <c:crossAx val="78168832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -32218,7 +32521,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -32238,6 +32541,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -32796,24 +33100,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="89520384"/>
-        <c:axId val="89526272"/>
+        <c:axId val="78284672"/>
+        <c:axId val="78286208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="89520384"/>
+        <c:axId val="78284672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89526272"/>
+        <c:crossAx val="78286208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89526272"/>
+        <c:axId val="78286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32821,13 +33125,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89520384"/>
+        <c:crossAx val="78284672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -32839,7 +33144,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -33329,25 +33634,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="89558016"/>
-        <c:axId val="89580288"/>
+        <c:axId val="82516608"/>
+        <c:axId val="82534784"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="89558016"/>
+        <c:axId val="82516608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89580288"/>
+        <c:crossAx val="82534784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89580288"/>
+        <c:axId val="82534784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33355,7 +33660,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89558016"/>
+        <c:crossAx val="82516608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33373,7 +33678,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -33583,24 +33888,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="90646016"/>
-        <c:axId val="90647552"/>
+        <c:axId val="82556032"/>
+        <c:axId val="82557568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="90646016"/>
+        <c:axId val="82556032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90647552"/>
+        <c:crossAx val="82557568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90647552"/>
+        <c:axId val="82557568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33608,7 +33913,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90646016"/>
+        <c:crossAx val="82556032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33626,7 +33931,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -34205,7 +34510,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000111"/>
+            <c:val val="0.75000000000000133"/>
           </c:errBars>
           <c:xVal>
             <c:strRef>
@@ -34426,22 +34731,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82302080"/>
-        <c:axId val="82303616"/>
+        <c:axId val="84636416"/>
+        <c:axId val="84637952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82302080"/>
+        <c:axId val="84636416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82303616"/>
+        <c:crossAx val="84637952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82303616"/>
+        <c:axId val="84637952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34449,13 +34754,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82302080"/>
+        <c:crossAx val="84636416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -34467,7 +34773,181 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="8"/>
+  <c:chart>
+    <c:title/>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardab.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$D$35:$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$D$36:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.5647378702354319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13605242797500799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3319297063512848E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2224212976861868E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2145838663243511E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9139971938384965E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18007600734426743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3542841296887821E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="67579904"/>
+        <c:axId val="67581824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="67579904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67581824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67581824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standardabweichungen [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67579904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -35046,22 +35526,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90919680"/>
-        <c:axId val="90921216"/>
+        <c:axId val="93213056"/>
+        <c:axId val="93214592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90919680"/>
+        <c:axId val="93213056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90921216"/>
+        <c:crossAx val="93214592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90921216"/>
+        <c:axId val="93214592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35069,13 +35549,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90919680"/>
+        <c:crossAx val="93213056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -35087,186 +35568,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="8"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$D$35:$K$35</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$D$36:$K$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.5647378702354319E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13605242797500799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3319297063512848E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2224212976861868E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2145838663243511E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9139971938384965E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18007600734426743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3542841296887821E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="66697472"/>
-        <c:axId val="66699648"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="66697472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66699648"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="66699648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Standardabweichungen [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66697472"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -35735,24 +36037,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="90972928"/>
-        <c:axId val="90974464"/>
+        <c:axId val="93254016"/>
+        <c:axId val="93255552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="90972928"/>
+        <c:axId val="93254016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90974464"/>
+        <c:crossAx val="93255552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90974464"/>
+        <c:axId val="93255552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35760,358 +36062,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90972928"/>
+        <c:crossAx val="93254016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fehler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="91012480"/>
-        <c:axId val="91022464"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="91012480"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91022464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="91022464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91012480"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -36138,11 +36096,12 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Standardab.Kont</a:t>
+              <a:t>Fehler</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -36154,88 +36113,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>TotalLab!$D$7</c:f>
+              <c:f>FehlerChart!$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>nF13</c:v>
+                  <c:v>F13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TotalLab!$E$7:$N$7</c:f>
+              <c:f>FehlerChart!$D$11:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36246,7 +36205,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>TotalLab!$D$8</c:f>
+              <c:f>FehlerChart!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -36257,77 +36216,77 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TotalLab!$E$8:$N$8</c:f>
+              <c:f>FehlerChart!$D$12:$M$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5021043774769821E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1121629988015636E-2</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1044018047837549</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -36338,7 +36297,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>TotalLab!$D$9</c:f>
+              <c:f>FehlerChart!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -36349,100 +36308,100 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TotalLab!$E$9:$N$9</c:f>
+              <c:f>FehlerChart!$D$13:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212442591E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6501047964198262E-2</c:v>
+                  <c:v>2.7E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848922</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91060480"/>
-        <c:axId val="91066368"/>
+        <c:axId val="75652096"/>
+        <c:axId val="75662080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91060480"/>
+        <c:axId val="75652096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91066368"/>
+        <c:crossAx val="75662080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91066368"/>
+        <c:axId val="75662080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36450,13 +36409,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91060480"/>
+        <c:crossAx val="75652096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -36483,6 +36443,353 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Standardab.Kont</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1583093241261018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="96601984"/>
+        <c:axId val="96603520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="96601984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96603520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="96603520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96601984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Fehlerindikatoren be F19</a:t>
             </a:r>
           </a:p>
@@ -36495,10 +36802,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0599518810148768E-2"/>
+          <c:x val="7.0599518810148795E-2"/>
           <c:y val="7.4548702245552642E-2"/>
           <c:w val="0.73774759405074364"/>
-          <c:h val="0.8971988918051913"/>
+          <c:h val="0.89719889180519152"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -37139,24 +37446,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91172224"/>
-        <c:axId val="91178112"/>
+        <c:axId val="96660480"/>
+        <c:axId val="96666368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91172224"/>
+        <c:axId val="96660480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91178112"/>
+        <c:crossAx val="96666368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91178112"/>
+        <c:axId val="96666368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37164,7 +37471,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91172224"/>
+        <c:crossAx val="96660480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -37176,17 +37483,19 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -37372,23 +37681,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="91215360"/>
-        <c:axId val="91216896"/>
+        <c:axId val="75355264"/>
+        <c:axId val="75356800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="91215360"/>
+        <c:axId val="75355264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91216896"/>
+        <c:crossAx val="75356800"/>
         <c:crossesAt val="2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="91216896"/>
+        <c:axId val="75356800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37396,13 +37705,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91215360"/>
+        <c:crossAx val="75355264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -37414,7 +37724,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -37434,6 +37744,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -37442,8 +37753,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7446631671040984E-2"/>
-          <c:y val="4.2141294838145368E-2"/>
-          <c:w val="0.72091447944007103"/>
+          <c:y val="4.214129483814541E-2"/>
+          <c:w val="0.72091447944007125"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -37882,7 +38193,7 @@
                   <c:v>6.6062171674232714E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
+                  <c:v>2.7772572611727615E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.4608937423083801E-2</c:v>
@@ -38002,24 +38313,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91253760"/>
-        <c:axId val="91263744"/>
+        <c:axId val="96848512"/>
+        <c:axId val="96858496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91253760"/>
+        <c:axId val="96848512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91263744"/>
+        <c:crossAx val="96858496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91263744"/>
+        <c:axId val="96858496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38027,13 +38338,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91253760"/>
+        <c:crossAx val="96848512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -38072,7 +38384,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -38243,12 +38554,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66606208"/>
-        <c:axId val="66608128"/>
+        <c:axId val="67603456"/>
+        <c:axId val="67617920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66606208"/>
+        <c:axId val="67603456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38269,17 +38580,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66608128"/>
+        <c:crossAx val="67617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66608128"/>
+        <c:axId val="67617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38301,18 +38611,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66606208"/>
+        <c:crossAx val="67603456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -38346,7 +38654,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -38517,12 +38824,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="66642304"/>
-        <c:axId val="66644224"/>
+        <c:axId val="67541248"/>
+        <c:axId val="67551616"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="66642304"/>
+        <c:axId val="67541248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38543,17 +38850,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66644224"/>
+        <c:crossAx val="67551616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66644224"/>
+        <c:axId val="67551616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38575,18 +38881,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66642304"/>
+        <c:crossAx val="67541248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -39292,11 +39596,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>87130</xdr:colOff>
-      <xdr:row>152</xdr:row>
-      <xdr:rowOff>52335</xdr:rowOff>
+      <xdr:colOff>592688</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="10505508" cy="2187610"/>
+    <xdr:ext cx="10505508" cy="1861038"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Textfeld 12"/>
@@ -39304,8 +39608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="851223" y="28920412"/>
-          <a:ext cx="10505508" cy="2187610"/>
+          <a:off x="1354688" y="30721788"/>
+          <a:ext cx="10505508" cy="1861038"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -39397,36 +39701,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>107811</xdr:colOff>
-      <xdr:row>210</xdr:row>
-      <xdr:rowOff>112416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107811</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>186524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Diagramm 14"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -39500,7 +39774,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39530,7 +39804,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39560,7 +39834,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39590,7 +39864,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39620,7 +39894,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39650,7 +39924,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39680,7 +39954,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39710,7 +39984,67 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>36633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>468924</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>109902</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Diagramm 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>183173</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>108438</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Diagramm 21"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41177,12 +41511,12 @@
       <sheetName val="Vergl.Fäs"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="5">
           <cell r="D5" t="str">
@@ -41249,6 +41583,41 @@
           </cell>
           <cell r="M6">
             <v>0.18101759146848873</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>nFxx</v>
+          </cell>
+          <cell r="D7">
+            <v>0.27653637811516296</v>
+          </cell>
+          <cell r="E7">
+            <v>0.23988154971722386</v>
+          </cell>
+          <cell r="F7">
+            <v>0.12647030023727018</v>
+          </cell>
+          <cell r="G7">
+            <v>2.4899799195977301E-2</v>
+          </cell>
+          <cell r="H7">
+            <v>3.2606102108912703E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>2.4809802816416617E-2</v>
+          </cell>
+          <cell r="J7">
+            <v>2.881885347805227E-2</v>
+          </cell>
+          <cell r="K7">
+            <v>0.2016093147388629</v>
+          </cell>
+          <cell r="L7">
+            <v>0.19285664160335861</v>
+          </cell>
+          <cell r="M7">
+            <v>0.21902355076446389</v>
           </cell>
         </row>
         <row r="8">
@@ -41832,7 +42201,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -43240,8 +43609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:M31"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -43260,7 +43629,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -43321,7 +43690,7 @@
         <v>0.39</v>
       </c>
       <c r="F7">
-        <v>-0.8</v>
+        <v>-0.08</v>
       </c>
       <c r="G7">
         <v>-0.03</v>
@@ -44024,7 +44393,7 @@
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>-0.13750000000000001</v>
+        <v>-0.10150000000000001</v>
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
@@ -44069,7 +44438,7 @@
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>0.1583093241261018</v>
+        <v>2.7772572611727615E-2</v>
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
@@ -44114,7 +44483,7 @@
       </c>
       <c r="F32">
         <f>F31/A2</f>
-        <v>3.5399041021801109E-2</v>
+        <v>6.2101360269871814E-3</v>
       </c>
       <c r="G32">
         <f>G31/A2</f>
@@ -44159,7 +44528,7 @@
       </c>
       <c r="F33">
         <f>F31*A1</f>
-        <v>7.3983995735564315E-2</v>
+        <v>1.2979184296403209E-2</v>
       </c>
       <c r="G33">
         <f>G31*A1</f>
@@ -44227,7 +44596,7 @@
     </row>
     <row r="35" spans="3:13" ht="15.75">
       <c r="C35" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D35">
         <v>0.81</v>
@@ -44262,7 +44631,7 @@
     </row>
     <row r="36" spans="3:13" ht="15.75">
       <c r="C36" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:M36" si="2">ABS(ABS(MIN(D7:D26)-ABS(MAX(D7:D26))))</f>
@@ -44274,7 +44643,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="2"/>
-        <v>0.83000000000000007</v>
+        <v>0.18</v>
       </c>
       <c r="G36">
         <f t="shared" si="2"/>
@@ -44307,7 +44676,7 @@
     </row>
     <row r="37" spans="3:13">
       <c r="C37" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D37">
         <f>MAX(D36:M36)</f>
@@ -45141,7 +45510,7 @@
     </row>
     <row r="32" spans="4:12" ht="15.75">
       <c r="D32" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E32">
         <f>ABS(ABS(MIN(E5:E24)-ABS(MAX(E5:E24))))</f>
@@ -45178,7 +45547,7 @@
     </row>
     <row r="33" spans="4:5">
       <c r="D33" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E33">
         <f>MAX(E32:L32)</f>
@@ -45195,7 +45564,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:N30"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -46176,7 +46545,7 @@
     </row>
     <row r="34" spans="4:14" ht="15.75">
       <c r="D34" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E34">
         <v>2.44</v>
@@ -46211,7 +46580,7 @@
     </row>
     <row r="35" spans="4:14" ht="15.75">
       <c r="D35" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35">
         <f t="shared" ref="E35:N35" si="2">ABS(ABS(MIN(E6:E25))-ABS(MAX(E6:E25)))</f>
@@ -46256,7 +46625,7 @@
     </row>
     <row r="36" spans="4:14">
       <c r="D36" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E36">
         <f>MAX(E35:N35)</f>
@@ -47092,12 +47461,12 @@
     </row>
     <row r="37" spans="4:12" ht="15.75">
       <c r="D37" s="48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="15.75">
       <c r="D38" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E38">
         <f>ABS(ABS(MIN(E9:E28)-ABS(MAX(E9:E28))))</f>
@@ -47134,7 +47503,7 @@
     </row>
     <row r="39" spans="4:12">
       <c r="D39" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E39">
         <f>MAX(E38:L38)</f>
@@ -47150,7 +47519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -48661,8 +49030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O313"/>
   <sheetViews>
-    <sheetView topLeftCell="C150" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F152" sqref="F152"/>
+    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K211" sqref="K210:K211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -49636,7 +50005,7 @@
     </row>
     <row r="29" spans="3:13" ht="15.75">
       <c r="C29" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D29" s="1">
         <v>-8.1999999999999993</v>
@@ -49671,7 +50040,7 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" ref="D30:M30" si="4">ABS(ABS(MIN(D4:D23))-ABS(MAX(D4:D23)))</f>
@@ -49729,7 +50098,7 @@
     </row>
     <row r="87" spans="3:13" ht="26.25">
       <c r="D87" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E87" s="35"/>
       <c r="H87" s="35"/>
@@ -49739,7 +50108,7 @@
     </row>
     <row r="89" spans="3:13">
       <c r="C89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -49818,7 +50187,7 @@
         <v>6.6062171674232714E-2</v>
       </c>
       <c r="F91">
-        <v>0.1583093241261018</v>
+        <v>2.7772572611727615E-2</v>
       </c>
       <c r="G91">
         <v>1.4608937423083801E-2</v>
@@ -49914,7 +50283,7 @@
     </row>
     <row r="94" spans="3:13">
       <c r="C94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D94">
         <v>0.67787962756944131</v>
@@ -49954,246 +50323,58 @@
       <c r="J126" s="35"/>
     </row>
     <row r="175" spans="4:14" ht="18.75">
-      <c r="G175" s="22" t="s">
-        <v>108</v>
-      </c>
+      <c r="G175" s="22"/>
       <c r="H175" s="22"/>
       <c r="I175" s="22"/>
     </row>
     <row r="176" spans="4:14">
-      <c r="D176" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E176" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F176" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G176" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H176" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I176" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J176" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K176" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L176" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M176" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N176" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="4:14">
-      <c r="D177" t="s">
-        <v>67</v>
-      </c>
-      <c r="E177">
-        <v>0.12145932825869225</v>
-      </c>
-      <c r="F177">
-        <v>6.6062171674232714E-2</v>
-      </c>
-      <c r="G177">
-        <v>0.1583093241261018</v>
-      </c>
-      <c r="H177">
-        <v>1.4608937423083801E-2</v>
-      </c>
-      <c r="I177">
-        <v>3.8644806282753824E-2</v>
-      </c>
-      <c r="J177">
-        <v>2.502104377476887E-2</v>
-      </c>
-      <c r="K177">
-        <v>1.218281792655454E-2</v>
-      </c>
-      <c r="L177">
-        <v>1.98944583661936E-2</v>
-      </c>
-      <c r="M177">
-        <v>5.11216299880154E-2</v>
-      </c>
-      <c r="N177">
-        <v>0.10440180478375191</v>
-      </c>
-    </row>
-    <row r="178" spans="4:14">
-      <c r="D178" t="s">
-        <v>68</v>
-      </c>
-      <c r="E178">
-        <v>0.15118479455705683</v>
-      </c>
-      <c r="F178">
-        <v>3.7766596212438205E-2</v>
-      </c>
-      <c r="G178">
-        <v>3.3324560249003474E-2</v>
-      </c>
-      <c r="H178">
-        <v>9.3330200448672081E-3</v>
-      </c>
-      <c r="I178">
-        <v>1.6693837501494849E-2</v>
-      </c>
-      <c r="J178">
-        <v>1.922169826551564E-2</v>
-      </c>
-      <c r="K178">
-        <v>1.5423836644690757E-2</v>
-      </c>
-      <c r="L178">
-        <v>2.5874189537269287E-2</v>
-      </c>
-      <c r="M178">
-        <v>5.6501047964198518E-2</v>
-      </c>
-      <c r="N178">
-        <v>0.10868956275849763</v>
-      </c>
+      <c r="D176" s="18"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="11"/>
+      <c r="L176" s="11"/>
+      <c r="M176" s="11"/>
+      <c r="N176" s="12"/>
     </row>
     <row r="200" spans="4:14">
-      <c r="N200" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="N200" s="12"/>
     </row>
     <row r="201" spans="4:14" ht="15.75">
-      <c r="G201" s="30" t="s">
-        <v>109</v>
-      </c>
+      <c r="G201" s="30"/>
       <c r="H201" s="30"/>
-      <c r="N201">
-        <v>0.21902355076446389</v>
-      </c>
     </row>
     <row r="202" spans="4:14">
-      <c r="D202" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="G202" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H202" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I202" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J202" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="K202" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="L202" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="M202" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="N202">
-        <v>0.21598915664790441</v>
-      </c>
-    </row>
-    <row r="203" spans="4:14">
-      <c r="D203" t="s">
-        <v>67</v>
-      </c>
-      <c r="E203">
-        <v>0.27653637811516296</v>
-      </c>
-      <c r="F203">
-        <v>0.23988154971722386</v>
-      </c>
-      <c r="G203">
-        <v>0.12647030023727018</v>
-      </c>
-      <c r="H203">
-        <v>2.4899799195977301E-2</v>
-      </c>
-      <c r="I203">
-        <v>3.260610210891271E-2</v>
-      </c>
-      <c r="J203">
-        <v>2.4809802816417564E-2</v>
-      </c>
-      <c r="K203">
-        <v>2.881885347805227E-2</v>
-      </c>
-      <c r="L203">
-        <v>0.2016093147388629</v>
-      </c>
-      <c r="M203">
-        <v>0.19285664160335861</v>
-      </c>
-    </row>
-    <row r="204" spans="4:14">
-      <c r="D204" t="s">
-        <v>46</v>
-      </c>
-      <c r="E204">
-        <v>0.12143332586888243</v>
-      </c>
-      <c r="F204">
-        <v>0.15094352377104689</v>
-      </c>
-      <c r="G204">
-        <v>8.6235601391585134E-2</v>
-      </c>
-      <c r="H204">
-        <v>3.1867323637065369E-2</v>
-      </c>
-      <c r="I204">
-        <v>2.5526044491230367E-2</v>
-      </c>
-      <c r="J204">
-        <v>3.8099592482970748E-2</v>
-      </c>
-      <c r="K204">
-        <v>3.3308762874212805E-2</v>
-      </c>
-      <c r="L204">
-        <v>0.11520576557209559</v>
-      </c>
-      <c r="M204">
-        <v>0.23059362751956444</v>
-      </c>
+      <c r="D202" s="18"/>
+      <c r="E202" s="11"/>
+      <c r="F202" s="11"/>
+      <c r="G202" s="11"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="11"/>
+      <c r="L202" s="11"/>
+      <c r="M202" s="11"/>
     </row>
     <row r="232" spans="3:11" ht="21">
       <c r="E232" s="16"/>
     </row>
     <row r="236" spans="3:11" ht="21">
       <c r="E236" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
       <c r="I236" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="240" spans="3:11">
       <c r="C240" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D240" s="43" t="s">
         <v>98</v>
@@ -50309,7 +50490,7 @@
     </row>
     <row r="269" spans="3:15" ht="18.75">
       <c r="C269" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D269" s="19"/>
       <c r="E269" s="19"/>
@@ -50338,7 +50519,7 @@
     </row>
     <row r="272" spans="3:15">
       <c r="E272" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F272" s="44" t="s">
         <v>97</v>
@@ -50466,12 +50647,12 @@
     </row>
     <row r="306" spans="4:14">
       <c r="G306" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="307" spans="4:14">
       <c r="D307" s="55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E307" s="55" t="s">
         <v>97</v>
@@ -50621,7 +50802,7 @@
     </row>
     <row r="311" spans="4:14">
       <c r="D311" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E311">
         <v>0.16154761396859962</v>
@@ -50741,7 +50922,7 @@
   </sheetPr>
   <dimension ref="B1:L65"/>
   <sheetViews>
-    <sheetView topLeftCell="B40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
@@ -50752,13 +50933,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="23.25">
       <c r="D1" s="41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="41"/>
     </row>
     <row r="2" spans="2:12">
       <c r="C2" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
@@ -50772,7 +50953,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" s="38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="39" t="s">
         <v>97</v>
@@ -50947,7 +51128,7 @@
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" s="38">
         <v>2.66</v>
@@ -50982,7 +51163,7 @@
     </row>
     <row r="44" spans="4:11" ht="15.75">
       <c r="D44" s="30" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E44" s="30"/>
       <c r="F44" s="30"/>
@@ -50994,7 +51175,7 @@
     </row>
     <row r="45" spans="4:11" ht="15.75">
       <c r="D45" s="30" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
@@ -51006,7 +51187,7 @@
     </row>
     <row r="46" spans="4:11" ht="15.75">
       <c r="D46" s="30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
@@ -51053,7 +51234,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -52224,12 +52405,12 @@
   <sheetData>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -52241,7 +52422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:N12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -52284,7 +52465,7 @@
     </row>
     <row r="6" spans="4:14">
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>97</v>
@@ -52319,7 +52500,7 @@
     </row>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E7">
         <v>0.16154761396859962</v>
@@ -52459,7 +52640,7 @@
     </row>
     <row r="11" spans="4:14">
       <c r="D11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>0.67787962756944131</v>
@@ -52494,7 +52675,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -52537,7 +52718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M74" sqref="M74"/>
     </sheetView>
   </sheetViews>
@@ -52555,7 +52736,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="F4" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -53511,7 +53692,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="34" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32" s="1">
         <v>-0.78</v>
@@ -53546,12 +53727,12 @@
     </row>
     <row r="70" spans="2:12" ht="18.75">
       <c r="E70" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="43" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>97</v>
@@ -54388,7 +54569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -54428,7 +54609,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="C4" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D4" s="51" t="s">
         <v>0</v>
@@ -54463,7 +54644,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -54571,7 +54752,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8">
         <v>2.524</v>
@@ -54606,7 +54787,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9">
         <v>8.1999999999999993</v>
@@ -54641,7 +54822,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -54784,7 +54965,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D14">
         <v>2.5000000000000001E-2</v>
@@ -54819,7 +55000,7 @@
     </row>
     <row r="15" spans="1:13">
       <c r="C15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>0.9</v>
@@ -54862,7 +55043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:L40"/>
   <sheetViews>
-    <sheetView topLeftCell="F28" workbookViewId="0">
+    <sheetView topLeftCell="F10" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -54870,7 +55051,7 @@
   <sheetData>
     <row r="3" spans="1:12">
       <c r="B3" s="50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C3" s="51" t="s">
         <v>0</v>
@@ -55013,7 +55194,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>2.524</v>
@@ -55048,7 +55229,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8">
         <v>8.1999999999999993</v>
@@ -55083,7 +55264,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -55118,7 +55299,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -55226,7 +55407,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C13">
         <v>2.5000000000000001E-2</v>
@@ -55261,7 +55442,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="B14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C14">
         <v>0.9</v>
@@ -55606,20 +55787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="2:12">
       <c r="E7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="B8" s="55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>97</v>
@@ -55769,7 +55950,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>0.16154761396859962</v>
@@ -55813,7 +55994,7 @@
         <v>6.6062171674232714E-2</v>
       </c>
       <c r="E13">
-        <v>0.1583093241261018</v>
+        <v>2.7772572611727615E-2</v>
       </c>
       <c r="F13">
         <v>1.4608937423083801E-2</v>
@@ -55902,7 +56083,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -59054,7 +59235,7 @@
     </row>
     <row r="30" spans="3:13" ht="15.75">
       <c r="C30" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30">
         <f>ABS(ABS(MIN(Tabelle2[MP1a])-ABS(MAX(Tabelle2[MP1a]))))</f>
@@ -59099,7 +59280,7 @@
     </row>
     <row r="31" spans="3:13" ht="15.75">
       <c r="C31" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D31">
         <f>MAX(D30:M30)</f>
@@ -61778,7 +61959,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -62744,7 +62925,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E32">
         <v>2.524</v>
@@ -62779,7 +62960,7 @@
     </row>
     <row r="33" spans="4:14" ht="15.75">
       <c r="D33" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E33">
         <f t="shared" ref="E33:N33" si="2">ABS(ABS(MIN(E7:E26)-ABS(MAX(E7:E26))))</f>
@@ -62824,7 +63005,7 @@
     </row>
     <row r="34" spans="4:14">
       <c r="D34" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <f>MAX(E33:N33)</f>
@@ -63069,7 +63250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C3" sqref="C3:K32"/>
     </sheetView>
   </sheetViews>
@@ -63888,7 +64069,7 @@
     </row>
     <row r="30" spans="3:11" ht="15.75">
       <c r="C30" s="32" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D30">
         <f t="shared" ref="D30:K30" si="2">ABS(ABS(MIN(D5:D24)-ABS(MAX(D5:D24))))</f>
@@ -63925,7 +64106,7 @@
     </row>
     <row r="31" spans="3:11">
       <c r="C31" s="37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31">
         <f>MAX(D30:K30)</f>

--- a/SandboxVDKD.xlsx
+++ b/SandboxVDKD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="12" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19320" windowHeight="9855" tabRatio="930" firstSheet="12" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Kontur aussen F17Chr1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="134">
   <si>
     <t>MP1a</t>
   </si>
@@ -516,12 +516,6 @@
   </si>
   <si>
     <t>und daher die geringste Prozessschwankung.</t>
-  </si>
-  <si>
-    <t>Mater.</t>
-  </si>
-  <si>
-    <t>Vergleich Sannweite (Range) der in die engere Wahl kommenden Materialien nach dem Fräsen</t>
   </si>
   <si>
     <t>Soll</t>
@@ -1807,12 +1801,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58363904"/>
-        <c:axId val="58365824"/>
+        <c:axId val="67397504"/>
+        <c:axId val="67420544"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58363904"/>
+        <c:axId val="67397504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1836,14 +1830,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58365824"/>
+        <c:crossAx val="67420544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58365824"/>
+        <c:axId val="67420544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1868,7 +1862,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58363904"/>
+        <c:crossAx val="67397504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1911,7 +1905,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.34048408325799689"/>
+          <c:x val="0.34048408325799701"/>
           <c:y val="1.290322580645162E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -3361,11 +3355,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67661184"/>
-        <c:axId val="67671552"/>
+        <c:axId val="70055424"/>
+        <c:axId val="70057344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67661184"/>
+        <c:axId val="70055424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3388,14 +3382,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67671552"/>
+        <c:crossAx val="70057344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67671552"/>
+        <c:axId val="70057344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3420,7 +3414,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67661184"/>
+        <c:crossAx val="70055424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3546,12 +3540,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67832448"/>
-        <c:axId val="67851008"/>
+        <c:axId val="70415104"/>
+        <c:axId val="70417024"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67832448"/>
+        <c:axId val="70415104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,14 +3568,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67851008"/>
+        <c:crossAx val="70417024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67851008"/>
+        <c:axId val="70417024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3606,7 +3600,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67832448"/>
+        <c:crossAx val="70415104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,12 +3726,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67884160"/>
-        <c:axId val="67886080"/>
+        <c:axId val="70437888"/>
+        <c:axId val="70476928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67884160"/>
+        <c:axId val="70437888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3760,14 +3754,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67886080"/>
+        <c:crossAx val="70476928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67886080"/>
+        <c:axId val="70476928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3786,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67884160"/>
+        <c:crossAx val="70437888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4026,12 +4020,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67924352"/>
-        <c:axId val="67926272"/>
+        <c:axId val="70494464"/>
+        <c:axId val="70500736"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67924352"/>
+        <c:axId val="70494464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4054,14 +4048,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67926272"/>
+        <c:crossAx val="70500736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67926272"/>
+        <c:axId val="70500736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,7 +4080,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67924352"/>
+        <c:crossAx val="70494464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4320,12 +4314,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67943808"/>
-        <c:axId val="67950080"/>
+        <c:axId val="70534656"/>
+        <c:axId val="70536576"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67943808"/>
+        <c:axId val="70534656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,14 +4342,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67950080"/>
+        <c:crossAx val="70536576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67950080"/>
+        <c:axId val="70536576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4374,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67943808"/>
+        <c:crossAx val="70534656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5937,11 +5931,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68066304"/>
-        <c:axId val="68076672"/>
+        <c:axId val="70632576"/>
+        <c:axId val="70634496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68066304"/>
+        <c:axId val="70632576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,14 +5958,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68076672"/>
+        <c:crossAx val="70634496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68076672"/>
+        <c:axId val="70634496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5996,7 +5990,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68066304"/>
+        <c:crossAx val="70632576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6122,12 +6116,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68147456"/>
-        <c:axId val="68366720"/>
+        <c:axId val="70807936"/>
+        <c:axId val="70809856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68147456"/>
+        <c:axId val="70807936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6150,14 +6144,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68366720"/>
+        <c:crossAx val="70809856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68366720"/>
+        <c:axId val="70809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6182,7 +6176,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68147456"/>
+        <c:crossAx val="70807936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6308,12 +6302,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68408064"/>
-        <c:axId val="68409984"/>
+        <c:axId val="70924928"/>
+        <c:axId val="70927104"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68408064"/>
+        <c:axId val="70924928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6336,14 +6330,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68409984"/>
+        <c:crossAx val="70927104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68409984"/>
+        <c:axId val="70927104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6368,7 +6362,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68408064"/>
+        <c:crossAx val="70924928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6584,12 +6578,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68435968"/>
-        <c:axId val="68437888"/>
+        <c:axId val="70944640"/>
+        <c:axId val="70967296"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68435968"/>
+        <c:axId val="70944640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6612,14 +6606,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68437888"/>
+        <c:crossAx val="70967296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68437888"/>
+        <c:axId val="70967296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6644,7 +6638,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68435968"/>
+        <c:crossAx val="70944640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6854,12 +6848,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68480000"/>
-        <c:axId val="68498560"/>
+        <c:axId val="71001216"/>
+        <c:axId val="71003136"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68480000"/>
+        <c:axId val="71001216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6882,14 +6876,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68498560"/>
+        <c:crossAx val="71003136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68498560"/>
+        <c:axId val="71003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6914,7 +6908,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68480000"/>
+        <c:crossAx val="71001216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7040,12 +7034,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58386688"/>
-        <c:axId val="58270080"/>
+        <c:axId val="69214976"/>
+        <c:axId val="69216896"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58386688"/>
+        <c:axId val="69214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,14 +7063,14 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58270080"/>
+        <c:crossAx val="69216896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58270080"/>
+        <c:axId val="69216896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7101,7 +7095,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58386688"/>
+        <c:crossAx val="69214976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8604,11 +8598,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68340352"/>
-        <c:axId val="68342528"/>
+        <c:axId val="71054080"/>
+        <c:axId val="71056000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68340352"/>
+        <c:axId val="71054080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8631,14 +8625,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68342528"/>
+        <c:crossAx val="71056000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68342528"/>
+        <c:axId val="71056000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8663,7 +8657,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68340352"/>
+        <c:crossAx val="71054080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8821,12 +8815,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="68843392"/>
-        <c:axId val="68870144"/>
+        <c:axId val="73314304"/>
+        <c:axId val="73316224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="68843392"/>
+        <c:axId val="73314304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8849,14 +8843,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68870144"/>
+        <c:crossAx val="73316224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68870144"/>
+        <c:axId val="73316224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8881,7 +8875,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68843392"/>
+        <c:crossAx val="73314304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8935,7 +8929,7 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15934033245844431"/>
+          <c:x val="0.15934033245844437"/>
           <c:y val="5.5555555555555455E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -9041,12 +9035,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="70992256"/>
-        <c:axId val="70994176"/>
+        <c:axId val="73468160"/>
+        <c:axId val="73490816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="70992256"/>
+        <c:axId val="73468160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9069,14 +9063,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70994176"/>
+        <c:crossAx val="73490816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70994176"/>
+        <c:axId val="73490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9101,7 +9095,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70992256"/>
+        <c:crossAx val="73468160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9155,7 +9149,7 @@
           <c:yMode val="edge"/>
           <c:x val="6.6599518810148819E-2"/>
           <c:y val="7.4548702245552642E-2"/>
-          <c:w val="0.61978937007874346"/>
+          <c:w val="0.61978937007874368"/>
           <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
@@ -10782,11 +10776,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71042560"/>
-        <c:axId val="71044480"/>
+        <c:axId val="73452928"/>
+        <c:axId val="73541120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71042560"/>
+        <c:axId val="73452928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10809,14 +10803,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71044480"/>
+        <c:crossAx val="73541120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71044480"/>
+        <c:axId val="73541120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10841,7 +10835,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71042560"/>
+        <c:crossAx val="73452928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11177,12 +11171,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71075328"/>
-        <c:axId val="71077248"/>
+        <c:axId val="73559424"/>
+        <c:axId val="73577984"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71075328"/>
+        <c:axId val="73559424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11205,14 +11199,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71077248"/>
+        <c:crossAx val="73577984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71077248"/>
+        <c:axId val="73577984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11237,7 +11231,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71075328"/>
+        <c:crossAx val="73559424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11563,12 +11557,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="71198208"/>
-        <c:axId val="71200128"/>
+        <c:axId val="73883008"/>
+        <c:axId val="73885184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71198208"/>
+        <c:axId val="73883008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11591,14 +11585,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71200128"/>
+        <c:crossAx val="73885184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71200128"/>
+        <c:axId val="73885184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11623,7 +11617,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71198208"/>
+        <c:crossAx val="73883008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11765,12 +11759,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73679232"/>
-        <c:axId val="73681152"/>
+        <c:axId val="73967872"/>
+        <c:axId val="73974144"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73679232"/>
+        <c:axId val="73967872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11793,14 +11787,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73681152"/>
+        <c:crossAx val="73974144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73681152"/>
+        <c:axId val="73974144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11825,7 +11819,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73679232"/>
+        <c:crossAx val="73967872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11973,12 +11967,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73718400"/>
-        <c:axId val="73605888"/>
+        <c:axId val="74007296"/>
+        <c:axId val="74009216"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73718400"/>
+        <c:axId val="74007296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12001,14 +11995,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73605888"/>
+        <c:crossAx val="74009216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73605888"/>
+        <c:axId val="74009216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12033,7 +12027,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73718400"/>
+        <c:crossAx val="74007296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12323,12 +12317,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73640576"/>
-        <c:axId val="73646848"/>
+        <c:axId val="74048256"/>
+        <c:axId val="74050176"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73640576"/>
+        <c:axId val="74048256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12351,14 +12345,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73646848"/>
+        <c:crossAx val="74050176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73646848"/>
+        <c:axId val="74050176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12383,7 +12377,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73640576"/>
+        <c:crossAx val="74048256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12673,12 +12667,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="73759360"/>
-        <c:axId val="73765632"/>
+        <c:axId val="74416896"/>
+        <c:axId val="74418816"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="73759360"/>
+        <c:axId val="74416896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12701,14 +12695,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73765632"/>
+        <c:crossAx val="74418816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73765632"/>
+        <c:axId val="74418816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12733,7 +12727,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73759360"/>
+        <c:crossAx val="74416896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12967,12 +12961,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58312192"/>
-        <c:axId val="58314112"/>
+        <c:axId val="69259264"/>
+        <c:axId val="69261184"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58312192"/>
+        <c:axId val="69259264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12995,14 +12989,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58314112"/>
+        <c:crossAx val="69261184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58314112"/>
+        <c:axId val="69261184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13027,7 +13021,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58312192"/>
+        <c:crossAx val="69259264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13075,8 +13069,8 @@
           <c:yMode val="edge"/>
           <c:x val="7.4558952075056473E-2"/>
           <c:y val="8.9218171358717152E-2"/>
-          <c:w val="0.77271636572475033"/>
-          <c:h val="0.84410365656348507"/>
+          <c:w val="0.77271636572475022"/>
+          <c:h val="0.8441036565634854"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -14702,11 +14696,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="73805824"/>
-        <c:axId val="73807744"/>
+        <c:axId val="74545024"/>
+        <c:axId val="74567680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73805824"/>
+        <c:axId val="74545024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14729,14 +14723,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73807744"/>
+        <c:crossAx val="74567680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73807744"/>
+        <c:axId val="74567680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14761,7 +14755,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73805824"/>
+        <c:crossAx val="74545024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15125,8 +15119,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68177280"/>
-        <c:axId val="68191744"/>
+        <c:axId val="82281984"/>
+        <c:axId val="82283904"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -15435,11 +15429,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="68195840"/>
-        <c:axId val="68193664"/>
+        <c:axId val="82304384"/>
+        <c:axId val="82302464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="68177280"/>
+        <c:axId val="82281984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15462,12 +15456,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68191744"/>
+        <c:crossAx val="82283904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68191744"/>
+        <c:axId val="82283904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15492,12 +15486,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68177280"/>
+        <c:crossAx val="82281984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68193664"/>
+        <c:axId val="82302464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15521,19 +15515,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68195840"/>
+        <c:crossAx val="82304384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68195840"/>
+        <c:axId val="82304384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68193664"/>
+        <c:crossAx val="82302464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15889,8 +15883,8 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74344704"/>
-        <c:axId val="74346880"/>
+        <c:axId val="70762880"/>
+        <c:axId val="70764800"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
@@ -16203,11 +16197,11 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="74355072"/>
-        <c:axId val="74348800"/>
+        <c:axId val="70768896"/>
+        <c:axId val="70766976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="74344704"/>
+        <c:axId val="70762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16230,12 +16224,12 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74346880"/>
+        <c:crossAx val="70764800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74346880"/>
+        <c:axId val="70764800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16260,12 +16254,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74344704"/>
+        <c:crossAx val="70762880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74348800"/>
+        <c:axId val="70766976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16289,19 +16283,19 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74355072"/>
+        <c:crossAx val="70768896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74355072"/>
+        <c:axId val="70768896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="74348800"/>
+        <c:crossAx val="70766976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16717,25 +16711,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="74308608"/>
-        <c:axId val="74453760"/>
+        <c:axId val="82470016"/>
+        <c:axId val="82471552"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="74308608"/>
+        <c:axId val="82470016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74453760"/>
+        <c:crossAx val="82471552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74453760"/>
+        <c:axId val="82471552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16743,7 +16737,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74308608"/>
+        <c:crossAx val="82470016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18391,24 +18385,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="74550272"/>
-        <c:axId val="74564352"/>
+        <c:axId val="82523264"/>
+        <c:axId val="82524800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74550272"/>
+        <c:axId val="82523264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74564352"/>
+        <c:crossAx val="82524800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74564352"/>
+        <c:axId val="82524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18416,7 +18410,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74550272"/>
+        <c:crossAx val="82523264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18768,25 +18762,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75074944"/>
-        <c:axId val="75084928"/>
+        <c:axId val="83195392"/>
+        <c:axId val="83196928"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75074944"/>
+        <c:axId val="83195392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75084928"/>
+        <c:crossAx val="83196928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75084928"/>
+        <c:axId val="83196928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18794,7 +18788,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75074944"/>
+        <c:crossAx val="83195392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19146,25 +19140,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75111424"/>
-        <c:axId val="75133696"/>
+        <c:axId val="83235968"/>
+        <c:axId val="83237504"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75111424"/>
+        <c:axId val="83235968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75133696"/>
+        <c:crossAx val="83237504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75133696"/>
+        <c:axId val="83237504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19172,7 +19166,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75111424"/>
+        <c:crossAx val="83235968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20590,24 +20584,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="75222016"/>
-        <c:axId val="75232000"/>
+        <c:axId val="83338368"/>
+        <c:axId val="83339904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="75222016"/>
+        <c:axId val="83338368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75232000"/>
+        <c:crossAx val="83339904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75232000"/>
+        <c:axId val="83339904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20615,7 +20609,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75222016"/>
+        <c:crossAx val="83338368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20629,7 +20623,7 @@
           <c:x val="0.74749912510936123"/>
           <c:y val="0.16011774569845438"/>
           <c:w val="0.25250087489063888"/>
-          <c:h val="0.83717191601050356"/>
+          <c:h val="0.83717191601050389"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -21025,25 +21019,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75410816"/>
-        <c:axId val="75416704"/>
+        <c:axId val="83559936"/>
+        <c:axId val="83561472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75410816"/>
+        <c:axId val="83559936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75416704"/>
+        <c:crossAx val="83561472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75416704"/>
+        <c:axId val="83561472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21051,7 +21045,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75410816"/>
+        <c:crossAx val="83559936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21403,25 +21397,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75443200"/>
-        <c:axId val="75453184"/>
+        <c:axId val="83608704"/>
+        <c:axId val="83610240"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75443200"/>
+        <c:axId val="83608704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75453184"/>
+        <c:crossAx val="83610240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75453184"/>
+        <c:axId val="83610240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21429,7 +21423,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75443200"/>
+        <c:crossAx val="83608704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21663,12 +21657,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="58405632"/>
-        <c:axId val="58407552"/>
+        <c:axId val="69553152"/>
+        <c:axId val="69563520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="58405632"/>
+        <c:axId val="69553152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21691,14 +21685,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58407552"/>
+        <c:crossAx val="69563520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58407552"/>
+        <c:axId val="69563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21723,7 +21717,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="58405632"/>
+        <c:crossAx val="69553152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21939,25 +21933,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75507200"/>
-        <c:axId val="75508736"/>
+        <c:axId val="83676544"/>
+        <c:axId val="83362944"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75507200"/>
+        <c:axId val="83676544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75508736"/>
+        <c:crossAx val="83362944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75508736"/>
+        <c:axId val="83362944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21965,7 +21959,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75507200"/>
+        <c:crossAx val="83676544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22181,25 +22175,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75537792"/>
-        <c:axId val="75543680"/>
+        <c:axId val="83387904"/>
+        <c:axId val="83389440"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75537792"/>
+        <c:axId val="83387904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75543680"/>
+        <c:crossAx val="83389440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75543680"/>
+        <c:axId val="83389440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22207,7 +22201,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75537792"/>
+        <c:crossAx val="83387904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22399,25 +22393,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75699712"/>
-        <c:axId val="75701248"/>
+        <c:axId val="83422592"/>
+        <c:axId val="83829888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75699712"/>
+        <c:axId val="83422592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75701248"/>
+        <c:crossAx val="83829888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75701248"/>
+        <c:axId val="83829888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22425,7 +22419,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75699712"/>
+        <c:crossAx val="83422592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22641,25 +22635,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75718016"/>
-        <c:axId val="75740288"/>
+        <c:axId val="83846656"/>
+        <c:axId val="83848192"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75718016"/>
+        <c:axId val="83846656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75740288"/>
+        <c:crossAx val="83848192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75740288"/>
+        <c:axId val="83848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22667,7 +22661,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75718016"/>
+        <c:crossAx val="83846656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -22859,25 +22853,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75830784"/>
-        <c:axId val="75832320"/>
+        <c:axId val="83885440"/>
+        <c:axId val="83895424"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75830784"/>
+        <c:axId val="83885440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75832320"/>
+        <c:crossAx val="83895424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75832320"/>
+        <c:axId val="83895424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22885,7 +22879,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75830784"/>
+        <c:crossAx val="83885440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23101,25 +23095,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75776000"/>
-        <c:axId val="75777536"/>
+        <c:axId val="83953536"/>
+        <c:axId val="83955072"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75776000"/>
+        <c:axId val="83953536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75777536"/>
+        <c:crossAx val="83955072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75777536"/>
+        <c:axId val="83955072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23127,7 +23121,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75776000"/>
+        <c:crossAx val="83953536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23343,25 +23337,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75814400"/>
-        <c:axId val="75815936"/>
+        <c:axId val="83983744"/>
+        <c:axId val="83985536"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75814400"/>
+        <c:axId val="83983744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75815936"/>
+        <c:crossAx val="83985536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75815936"/>
+        <c:axId val="83985536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23369,7 +23363,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75814400"/>
+        <c:crossAx val="83983744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23561,25 +23555,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75922816"/>
-        <c:axId val="75928704"/>
+        <c:axId val="84018688"/>
+        <c:axId val="84020224"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75922816"/>
+        <c:axId val="84018688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75928704"/>
+        <c:crossAx val="84020224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75928704"/>
+        <c:axId val="84020224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23587,7 +23581,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75922816"/>
+        <c:crossAx val="84018688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23779,25 +23773,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="75949568"/>
-        <c:axId val="75951104"/>
+        <c:axId val="84032896"/>
+        <c:axId val="84042880"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="75949568"/>
+        <c:axId val="84032896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75951104"/>
+        <c:crossAx val="84042880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75951104"/>
+        <c:axId val="84042880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23805,7 +23799,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75949568"/>
+        <c:crossAx val="84032896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23997,25 +23991,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="76057984"/>
-        <c:axId val="76059776"/>
+        <c:axId val="84088320"/>
+        <c:axId val="84089856"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="76057984"/>
+        <c:axId val="84088320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76059776"/>
+        <c:crossAx val="84089856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76059776"/>
+        <c:axId val="84089856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24023,7 +24017,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76057984"/>
+        <c:crossAx val="84088320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25748,11 +25742,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59389824"/>
-        <c:axId val="59400192"/>
+        <c:axId val="69640576"/>
+        <c:axId val="69642496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="59389824"/>
+        <c:axId val="69640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25775,14 +25769,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59400192"/>
+        <c:crossAx val="69642496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59400192"/>
+        <c:axId val="69642496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25807,7 +25801,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59389824"/>
+        <c:crossAx val="69640576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -25950,25 +25944,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77420032"/>
-        <c:axId val="77421568"/>
+        <c:axId val="84209664"/>
+        <c:axId val="84211200"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77420032"/>
+        <c:axId val="84209664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77421568"/>
+        <c:crossAx val="84211200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77421568"/>
+        <c:axId val="84211200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25976,7 +25970,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77420032"/>
+        <c:crossAx val="84209664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -26120,25 +26114,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77442048"/>
-        <c:axId val="77460224"/>
+        <c:axId val="84239872"/>
+        <c:axId val="84241408"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77442048"/>
+        <c:axId val="84239872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77460224"/>
+        <c:crossAx val="84241408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77460224"/>
+        <c:axId val="84241408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26146,7 +26140,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77442048"/>
+        <c:crossAx val="84239872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27803,24 +27797,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77513088"/>
-        <c:axId val="77515008"/>
+        <c:axId val="84298368"/>
+        <c:axId val="84308736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77513088"/>
+        <c:axId val="84298368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77515008"/>
+        <c:crossAx val="84308736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77515008"/>
+        <c:axId val="84308736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27828,7 +27822,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77513088"/>
+        <c:crossAx val="84298368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -27865,6 +27859,24 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Vergl Spalt Neue Mater.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
     </c:view3D>
@@ -28114,25 +28126,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="77618176"/>
-        <c:axId val="77628160"/>
+        <c:axId val="84417536"/>
+        <c:axId val="84439808"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77618176"/>
+        <c:axId val="84417536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77628160"/>
+        <c:crossAx val="84439808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77628160"/>
+        <c:axId val="84439808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28140,7 +28152,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77618176"/>
+        <c:crossAx val="84417536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28175,263 +28187,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vergleich Range Fräsen Fxx, F17, F18</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$273</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$271:$O$271</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0699999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$274</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$272:$O$272</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.65999999999999992</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.76000000000000023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'F19'!$E$275</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'F19'!$F$270:$O$270</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'F19'!$F$273:$O$273</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.51</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.3999999999999995</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="77653888"/>
-        <c:axId val="77655424"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="77653888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77655424"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77655424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77653888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>nStandardab. Kontur alle Materialien</a:t>
             </a:r>
           </a:p>
@@ -28904,24 +28659,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77703424"/>
-        <c:axId val="77717504"/>
+        <c:axId val="84584704"/>
+        <c:axId val="84598784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77703424"/>
+        <c:axId val="84584704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77717504"/>
+        <c:crossAx val="84598784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77717504"/>
+        <c:axId val="84598784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28929,7 +28684,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77703424"/>
+        <c:crossAx val="84584704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -28948,7 +28703,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29264,24 +29019,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77739520"/>
-        <c:axId val="77741056"/>
+        <c:axId val="84497920"/>
+        <c:axId val="84499456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77739520"/>
+        <c:axId val="84497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77741056"/>
+        <c:crossAx val="84499456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77741056"/>
+        <c:axId val="84499456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29289,7 +29044,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77739520"/>
+        <c:crossAx val="84497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29308,7 +29063,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29519,24 +29274,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77782016"/>
-        <c:axId val="77800192"/>
+        <c:axId val="84516224"/>
+        <c:axId val="84530304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77782016"/>
+        <c:axId val="84516224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77800192"/>
+        <c:crossAx val="84530304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77800192"/>
+        <c:axId val="84530304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29544,7 +29299,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77782016"/>
+        <c:crossAx val="84516224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29563,7 +29318,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -29774,24 +29529,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77833344"/>
-        <c:axId val="77834880"/>
+        <c:axId val="84649088"/>
+        <c:axId val="84650624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77833344"/>
+        <c:axId val="84649088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77834880"/>
+        <c:crossAx val="84650624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77834880"/>
+        <c:axId val="84650624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -29799,7 +29554,262 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77833344"/>
+        <c:crossAx val="84649088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Standardab F13 vs F17</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="84671488"/>
+        <c:axId val="84751104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84671488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84751104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84751104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84671488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29833,7 +29843,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Kontur Standardab F13 vs F17</a:t>
+              <a:t>Vergl. Standardab. Fräs Kontur</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -29849,88 +29859,88 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$90</c:f>
+              <c:f>[1]Vergl.Fäs!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F13</c:v>
+                  <c:v>nF13</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
+                  <c:v>0.26684117097313848</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
+                  <c:v>0.18101759146848873</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -29941,112 +29951,112 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'F19'!$C$92</c:f>
+              <c:f>[1]Vergl.Fäs!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>F17</c:v>
+                  <c:v>nF17</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>MP9</c:v>
+                  <c:v>MP9a</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>MP10</c:v>
+                  <c:v>MP10a</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:f>[1]Vergl.Fäs!$D$8:$M$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.15118479455706893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212442591E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.6501047964198262E-2</c:v>
+                  <c:v>0.23059362751956444</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10868956275848922</c:v>
+                  <c:v>0.21598915664790441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77847552"/>
-        <c:axId val="77878016"/>
+        <c:axId val="84690432"/>
+        <c:axId val="84691968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77847552"/>
+        <c:axId val="84690432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77878016"/>
+        <c:crossAx val="84691968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77878016"/>
+        <c:axId val="84691968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30054,7 +30064,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77847552"/>
+        <c:crossAx val="84690432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30168,12 +30178,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="59553280"/>
-        <c:axId val="59555200"/>
+        <c:axId val="69881856"/>
+        <c:axId val="69883776"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="59553280"/>
+        <c:axId val="69881856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30196,14 +30206,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59555200"/>
+        <c:crossAx val="69883776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59555200"/>
+        <c:axId val="69883776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30228,7 +30238,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59553280"/>
+        <c:crossAx val="69881856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30262,261 +30272,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Vergl. Standardab. Fräs Kontur</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Vergl.Fäs!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.24575126492151839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.27095348212134901</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19027611515899726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9841477024816312E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3597502097958335E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8335397241649171E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1834274809261667E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.14628289103831021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26684117097313848</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.18101759146848873</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Vergl.Fäs!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Vergl.Fäs!$D$8:$M$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12143332586888554</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15094352377104689</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6235601391585134E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1867323637065369E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5526044491233284E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8099592482970492E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.3308762874212805E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.11520576557209559</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23059362751956444</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21598915664790441</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="77907456"/>
-        <c:axId val="77908992"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="77907456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77908992"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="77908992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77907456"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
               <a:t>Kontur Standardab. F17 vs Fxx</a:t>
             </a:r>
           </a:p>
@@ -30713,24 +30468,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77925760"/>
-        <c:axId val="77952128"/>
+        <c:axId val="84712832"/>
+        <c:axId val="84808832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77925760"/>
+        <c:axId val="84712832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77952128"/>
+        <c:crossAx val="84808832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77952128"/>
+        <c:axId val="84808832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30738,7 +30493,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77925760"/>
+        <c:crossAx val="84712832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30751,13 +30506,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -30968,24 +30723,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="123926016"/>
-        <c:axId val="123927552"/>
+        <c:axId val="84817408"/>
+        <c:axId val="84818944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123926016"/>
+        <c:axId val="84817408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123927552"/>
+        <c:crossAx val="84818944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123927552"/>
+        <c:axId val="84818944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -30993,7 +30748,802 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123926016"/>
+        <c:crossAx val="84817408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab. nF13/nFxx/nF17 Vgl.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$90</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$90:$M$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$91:$M$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'F19'!$C$92</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'F19'!$D$89:$M$89</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'F19'!$D$92:$M$92</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="95875456"/>
+        <c:axId val="95876992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="95875456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95876992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="95876992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95875456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Standardab. Alle neuen Mat</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$9:$M$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14475023861447475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15401298646542766</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7141747805092262E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6137289353275334E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.366028258614094E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1884410139143637E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6052030071259679E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14869962658785785</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29006532839490162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40218187820672957</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="116556160"/>
+        <c:axId val="116557696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="116556160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116557696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="116557696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116556160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31012,7 +31562,354 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kontur Fräs Vgl neu nF13/nF17/nFxx</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24575126492151839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27095348212134901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19027611515899726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9841477024816312E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3597502097958335E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8335397241649171E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1834274809261667E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14628289103831021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26684117097313848</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18101759146848873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27653637811516296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23988154971722386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12647030023727018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4899799195977301E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2606102108912703E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.4809802816416617E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.881885347805227E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2016093147388629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19285664160335861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21902355076446389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Vergl.Fäs!$D$5:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Vergl.Fäs!$D$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12143332586888554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15094352377104689</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6235601391585134E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1867323637065369E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5526044491233284E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8099592482970492E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3308762874212805E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11520576557209559</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23059362751956444</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21598915664790441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="72190208"/>
+        <c:axId val="74689536"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="72190208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74689536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="74689536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72190208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -31507,25 +32404,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78024064"/>
-        <c:axId val="78029952"/>
+        <c:axId val="84919808"/>
+        <c:axId val="84921344"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78024064"/>
+        <c:axId val="84919808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78029952"/>
+        <c:crossAx val="84921344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78029952"/>
+        <c:axId val="84921344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31533,7 +32430,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78024064"/>
+        <c:crossAx val="84919808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31552,7 +32449,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -31866,25 +32763,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="78199424"/>
-        <c:axId val="78213504"/>
+        <c:axId val="89412352"/>
+        <c:axId val="89413888"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="78199424"/>
+        <c:axId val="89412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78213504"/>
+        <c:crossAx val="89413888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78213504"/>
+        <c:axId val="89413888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -31892,7 +32789,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78199424"/>
+        <c:crossAx val="89412352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -31911,7 +32808,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -32397,7 +33294,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="plus"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000155"/>
+            <c:val val="0.75000000000000167"/>
           </c:errBars>
           <c:cat>
             <c:strRef>
@@ -32478,38 +33375,37 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78168832"/>
-        <c:axId val="78170368"/>
+        <c:axId val="89569920"/>
+        <c:axId val="89584000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78168832"/>
+        <c:axId val="89569920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78170368"/>
+        <c:crossAx val="89584000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78170368"/>
+        <c:axId val="89584000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78168832"/>
+        <c:crossAx val="89569920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -32521,7 +33417,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -32541,7 +33437,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -33100,24 +33995,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78284672"/>
-        <c:axId val="78286208"/>
+        <c:axId val="89624576"/>
+        <c:axId val="89626112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78284672"/>
+        <c:axId val="89624576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78286208"/>
+        <c:crossAx val="89626112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78286208"/>
+        <c:axId val="89626112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33125,14 +34020,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78284672"/>
+        <c:crossAx val="89624576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -33144,7 +34038,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -33634,25 +34528,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="82516608"/>
-        <c:axId val="82534784"/>
+        <c:axId val="90780416"/>
+        <c:axId val="90781952"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="82516608"/>
+        <c:axId val="90780416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82534784"/>
+        <c:crossAx val="90781952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82534784"/>
+        <c:axId val="90781952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33660,7 +34554,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82516608"/>
+        <c:crossAx val="90780416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33678,7 +34572,181 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="8"/>
+  <c:chart>
+    <c:title/>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standardab.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$D$35:$K$35</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>MP2b</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP3b</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP4b</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP5b</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP6b</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP7b</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP8b</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP9b</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Spalt vorne unten F17 Charge1'!$D$36:$K$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9.5647378702354319E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13605242797500799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3319297063512848E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2224212976861868E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2145838663243511E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9139971938384965E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18007600734426743</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3542841296887821E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:shape val="cylinder"/>
+        <c:axId val="69908736"/>
+        <c:axId val="69910912"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="69908736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Messpunkte</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69910912"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69910912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Standardabweichungen [mm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69908736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -33888,24 +34956,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="82556032"/>
-        <c:axId val="82557568"/>
+        <c:axId val="90807296"/>
+        <c:axId val="90817280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82556032"/>
+        <c:axId val="90807296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82557568"/>
+        <c:crossAx val="90817280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82557568"/>
+        <c:axId val="90817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -33913,7 +34981,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82556032"/>
+        <c:crossAx val="90807296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -33931,7 +34999,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -34510,7 +35578,7 @@
             <c:errDir val="y"/>
             <c:errBarType val="both"/>
             <c:errValType val="fixedVal"/>
-            <c:val val="0.75000000000000133"/>
+            <c:val val="0.75000000000000144"/>
           </c:errBars>
           <c:xVal>
             <c:strRef>
@@ -34731,22 +35799,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84636416"/>
-        <c:axId val="84637952"/>
+        <c:axId val="91048576"/>
+        <c:axId val="91054464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84636416"/>
+        <c:axId val="91048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84637952"/>
+        <c:crossAx val="91054464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84637952"/>
+        <c:axId val="91054464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -34754,14 +35822,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84636416"/>
+        <c:crossAx val="91048576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -34773,181 +35840,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="8"/>
-  <c:chart>
-    <c:title/>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$C$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Standardab.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$D$35:$K$35</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>MP2b</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP3b</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP4b</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP5b</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP6b</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP7b</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP8b</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP9b</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Spalt vorne unten F17 Charge1'!$D$36:$K$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>9.5647378702354319E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13605242797500799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.3319297063512848E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.2224212976861868E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.2145838663243511E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9139971938384965E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18007600734426743</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.3542841296887821E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="cylinder"/>
-        <c:axId val="67579904"/>
-        <c:axId val="67581824"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="67579904"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Messpunkte</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67581824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67581824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Standardabweichungen [mm]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67579904"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -35526,22 +36419,22 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="93213056"/>
-        <c:axId val="93214592"/>
+        <c:axId val="83761408"/>
+        <c:axId val="83775488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="93213056"/>
+        <c:axId val="83761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93214592"/>
+        <c:crossAx val="83775488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="93214592"/>
+        <c:axId val="83775488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -35549,14 +36442,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93213056"/>
+        <c:crossAx val="83761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -35568,7 +36460,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -36037,24 +36929,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93254016"/>
-        <c:axId val="93255552"/>
+        <c:axId val="83794176"/>
+        <c:axId val="91095040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93254016"/>
+        <c:axId val="83794176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93255552"/>
+        <c:crossAx val="91095040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93255552"/>
+        <c:axId val="91095040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36062,708 +36954,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93254016"/>
+        <c:crossAx val="83794176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Fehler</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$11:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.5999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$12:$M$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.05</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>FehlerChart!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>FehlerChart!$D$4:$M$4</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1a</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2a</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3a</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4a</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5a</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6a</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7a</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8a</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9a</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10a</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>FehlerChart!$D$13:$M$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.9999999999999993E-3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.2999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.06</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="75652096"/>
-        <c:axId val="75662080"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75652096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75662080"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75662080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75652096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Standardab.Kont</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TotalLab!$D$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nF13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TotalLab!$E$7:$N$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.16154761396859962</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0094647261064988E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.5250625145308381E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6944180805158294E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.6969768650335613E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.8451251013101756E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.7013926184468106E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.1100006402870252E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0147151884282058E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10668571650067847</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TotalLab!$D$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Fxx</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TotalLab!$E$8:$N$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.12145932825869225</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.6062171674232714E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1583093241261018</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.4608937423083801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.8644806282753824E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.5021043774769821E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.218281792655454E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.98944583661936E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.1121629988015636E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.1044018047837549</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>TotalLab!$D$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>F17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>TotalLab!$E$6:$N$6</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>MP1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MP2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MP3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MP4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MP5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MP6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>MP7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>MP8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>MP9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>MP10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>TotalLab!$E$9:$N$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.15118479455706893</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.7766596212442591E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.3324560249003474E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.3330200448672081E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6693837501494849E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.922169826551564E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.5423836644690757E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5874189537269287E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.6501047964198262E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10868956275848922</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="96601984"/>
-        <c:axId val="96603520"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="96601984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96603520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96603520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96601984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -36790,6 +36987,696 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Fehler</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerChart!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerChart!$D$11:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerChart!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerChart!$D$12:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>FehlerChart!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>FehlerChart!$D$4:$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1a</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2a</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3a</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4a</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5a</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6a</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7a</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8a</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9a</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10a</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>FehlerChart!$D$13:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9999999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="91124864"/>
+        <c:axId val="91126400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91124864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91126400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91126400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91124864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab.Kont</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$7:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$8:$N$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1583093241261018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>TotalLab!$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>TotalLab!$E$6:$N$6</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>TotalLab!$E$9:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455706893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212442591E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198262E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275848922</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="91168768"/>
+        <c:axId val="91170304"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="91168768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91170304"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="91170304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91168768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Fehlerindikatoren be F19</a:t>
             </a:r>
           </a:p>
@@ -36802,10 +37689,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0599518810148795E-2"/>
+          <c:x val="7.0599518810148809E-2"/>
           <c:y val="7.4548702245552642E-2"/>
           <c:w val="0.73774759405074364"/>
-          <c:h val="0.89719889180519152"/>
+          <c:h val="0.89719889180519163"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -37446,24 +38333,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96660480"/>
-        <c:axId val="96666368"/>
+        <c:axId val="91206784"/>
+        <c:axId val="91208320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96660480"/>
+        <c:axId val="91206784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96666368"/>
+        <c:crossAx val="91208320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96666368"/>
+        <c:axId val="91208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37471,7 +38358,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96660480"/>
+        <c:crossAx val="91206784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -37483,19 +38370,17 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -37681,23 +38566,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="75355264"/>
-        <c:axId val="75356800"/>
+        <c:axId val="91241472"/>
+        <c:axId val="91263744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75355264"/>
+        <c:axId val="91241472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75356800"/>
+        <c:crossAx val="91263744"/>
         <c:crossesAt val="2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75356800"/>
+        <c:axId val="91263744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -37705,14 +38590,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75355264"/>
+        <c:crossAx val="91241472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -37724,7 +38608,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -37753,8 +38637,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.7446631671040984E-2"/>
-          <c:y val="4.214129483814541E-2"/>
-          <c:w val="0.72091447944007125"/>
+          <c:y val="4.2141294838145424E-2"/>
+          <c:w val="0.72091447944007137"/>
           <c:h val="0.8326195683872849"/>
         </c:manualLayout>
       </c:layout>
@@ -38313,24 +39197,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="96848512"/>
-        <c:axId val="96858496"/>
+        <c:axId val="91329280"/>
+        <c:axId val="91330816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="96848512"/>
+        <c:axId val="91329280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96858496"/>
+        <c:crossAx val="91330816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96858496"/>
+        <c:axId val="91330816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38338,7 +39222,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96848512"/>
+        <c:crossAx val="91329280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -38352,6 +39236,281 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab. F13/nF13 Vergl</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="4BACC6"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.45378959882306691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12130431501849086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8092429442401306E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0770380921826529E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10287447640079071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16392873933190411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.218855275419505</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23452303219850071</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21083792727815212</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43154678955930992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="100724096"/>
+        <c:axId val="100725888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="100724096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100725888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100725888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100724096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -38554,12 +39713,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67603456"/>
-        <c:axId val="67617920"/>
+        <c:axId val="69821568"/>
+        <c:axId val="69823488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67603456"/>
+        <c:axId val="69821568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38582,14 +39741,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67617920"/>
+        <c:crossAx val="69823488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67617920"/>
+        <c:axId val="69823488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38614,7 +39773,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67603456"/>
+        <c:crossAx val="69821568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -38628,6 +39787,921 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab. F17/nF17 Verg.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.27030002823373267</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11573449651772093</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.5587751214146704E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.592389616661136E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8022547312739773E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.4942038071455556E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1128331324987196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.83699056096306E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21041062610748731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198518E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275849763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="93719168"/>
+        <c:axId val="101443840"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="93719168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101443840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101443840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93719168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart81.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Standardab. Fxx/nFxx Vergl.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$14:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.4156108190858081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13784048752090203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8247719459969976E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3455741879327438E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0317785885405518E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7527082062880359E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8382310609877344E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13217635278405179</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12059357552339342</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29073043013509225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="101595776"/>
+        <c:axId val="58077952"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="101595776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58077952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58077952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101595776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart82.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>vgl Stand kontur</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> neu</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15118479455705683</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7766596212438205E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3324560249003474E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3330200448672081E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6693837501494849E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.922169826551564E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5423836644690757E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5874189537269287E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.6501047964198518E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10868956275849763</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nF13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$12:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.16154761396859962</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0094647261064988E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5250625145308381E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6944180805158294E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6969768650335613E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8451251013101756E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7013926184468106E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1100006402870252E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0147151884282058E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10668571650067847</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>VerglAltNeu!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nFxx</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>VerglAltNeu!$C$8:$L$8</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>MP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MP5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MP6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MP7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>MP8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>MP9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>MP10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>VerglAltNeu!$C$13:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12145932825869225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.6062171674232714E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7772572611727615E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4608937423083801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8644806282753824E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5021043774769821E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.218281792655454E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.98944583661936E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.1121629988015636E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1044018047837549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="117541888"/>
+        <c:axId val="117543680"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117541888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117543680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117543680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="117541888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -38824,12 +40898,12 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="67541248"/>
-        <c:axId val="67551616"/>
+        <c:axId val="69853568"/>
+        <c:axId val="69855488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67541248"/>
+        <c:axId val="69853568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38852,14 +40926,14 @@
           </c:tx>
         </c:title>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67551616"/>
+        <c:crossAx val="69855488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67551616"/>
+        <c:axId val="69855488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -38884,7 +40958,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67541248"/>
+        <c:crossAx val="69853568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -39782,36 +41856,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>566266</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>99017</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>553706</xdr:colOff>
-      <xdr:row>292</xdr:row>
-      <xdr:rowOff>16118</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Diagramm 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>87922</xdr:colOff>
       <xdr:row>96</xdr:row>
@@ -39834,7 +41878,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39864,7 +41908,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39894,7 +41938,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39924,7 +41968,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39954,7 +41998,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -39984,7 +42028,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40014,7 +42058,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40044,7 +42088,97 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>505557</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>109902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Diagramm 22"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>65943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>718039</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Diagramm 23"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>696058</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>696058</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>156796</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="25" name="Diagramm 24"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -40490,6 +42624,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -41655,6 +43909,41 @@
             <v>0.21598915664790441</v>
           </cell>
         </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>F18</v>
+          </cell>
+          <cell r="D9">
+            <v>0.14475023861447475</v>
+          </cell>
+          <cell r="E9">
+            <v>0.15401298646542766</v>
+          </cell>
+          <cell r="F9">
+            <v>8.7141747805092262E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.6137289353275334E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>6.366028258614094E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>7.1884410139143637E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>4.6052030071259679E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>0.14869962658785785</v>
+          </cell>
+          <cell r="L9">
+            <v>0.29006532839490162</v>
+          </cell>
+          <cell r="M9">
+            <v>0.40218187820672957</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -42201,7 +44490,7 @@
         <v>78</v>
       </c>
       <c r="D1" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75">
@@ -43629,7 +45918,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -44596,7 +46885,7 @@
     </row>
     <row r="35" spans="3:13" ht="15.75">
       <c r="C35" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35">
         <v>0.81</v>
@@ -46545,7 +48834,7 @@
     </row>
     <row r="34" spans="4:14" ht="15.75">
       <c r="D34" s="48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E34">
         <v>2.44</v>
@@ -47461,7 +49750,7 @@
     </row>
     <row r="37" spans="4:12" ht="15.75">
       <c r="D37" s="48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="4:12" ht="15.75">
@@ -49028,10 +51317,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O313"/>
+  <dimension ref="A1:O307"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K211" sqref="K210:K211"/>
+    <sheetView tabSelected="1" topLeftCell="B237" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J249" sqref="J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -50005,7 +52294,7 @@
     </row>
     <row r="29" spans="3:13" ht="15.75">
       <c r="C29" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="1">
         <v>-8.1999999999999993</v>
@@ -50098,7 +52387,7 @@
     </row>
     <row r="87" spans="3:13" ht="26.25">
       <c r="D87" s="35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E87" s="35"/>
       <c r="H87" s="35"/>
@@ -50489,9 +52778,7 @@
       </c>
     </row>
     <row r="269" spans="3:15" ht="18.75">
-      <c r="C269" s="19" t="s">
-        <v>124</v>
-      </c>
+      <c r="C269" s="19"/>
       <c r="D269" s="19"/>
       <c r="E269" s="19"/>
       <c r="F269" s="19"/>
@@ -50502,408 +52789,32 @@
       <c r="K269" s="19"/>
     </row>
     <row r="270" spans="3:15">
-      <c r="N270" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="O270" s="44" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="271" spans="3:15">
-      <c r="N271">
-        <v>0.5</v>
-      </c>
-      <c r="O271">
-        <v>1.0699999999999998</v>
-      </c>
+      <c r="N270" s="44"/>
+      <c r="O270" s="44"/>
     </row>
     <row r="272" spans="3:15">
-      <c r="E272" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="F272" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="G272" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="H272" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I272" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="J272" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="K272" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="L272" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="M272" s="44" t="s">
-        <v>104</v>
-      </c>
-      <c r="N272">
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="O272">
-        <v>0.76000000000000023</v>
-      </c>
-    </row>
-    <row r="273" spans="5:15">
-      <c r="E273" t="s">
-        <v>47</v>
-      </c>
-      <c r="F273">
-        <v>1.02</v>
-      </c>
-      <c r="G273">
-        <v>0.76</v>
-      </c>
-      <c r="H273">
-        <v>0.38</v>
-      </c>
-      <c r="I273">
-        <v>0.22</v>
-      </c>
-      <c r="J273">
-        <v>0.69</v>
-      </c>
-      <c r="K273">
-        <v>0.79</v>
-      </c>
-      <c r="L273">
-        <v>0.51</v>
-      </c>
-      <c r="M273">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="N273">
-        <v>0.86</v>
-      </c>
-      <c r="O273">
-        <v>1.3999999999999995</v>
-      </c>
-    </row>
-    <row r="274" spans="5:15">
-      <c r="E274" t="s">
-        <v>46</v>
-      </c>
-      <c r="F274">
-        <v>0.43999999999999995</v>
-      </c>
-      <c r="G274">
-        <v>0.4</v>
-      </c>
-      <c r="H274">
-        <v>0.24</v>
-      </c>
-      <c r="I274">
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="J274">
-        <v>0.87</v>
-      </c>
-      <c r="K274">
-        <v>0.89</v>
-      </c>
-      <c r="L274">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="M274">
-        <v>1.1299999999999999</v>
-      </c>
-    </row>
-    <row r="275" spans="5:15">
-      <c r="E275" t="s">
-        <v>52</v>
-      </c>
-      <c r="F275">
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="G275">
-        <v>0.54</v>
-      </c>
-      <c r="H275">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I275">
-        <v>0.11</v>
-      </c>
-      <c r="J275">
-        <v>0.68</v>
-      </c>
-      <c r="K275">
-        <v>0.66</v>
-      </c>
-      <c r="L275">
-        <v>0.22999999999999998</v>
-      </c>
-      <c r="M275">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="306" spans="4:14">
-      <c r="G306" t="s">
-        <v>131</v>
-      </c>
+      <c r="E272" s="44"/>
+      <c r="F272" s="44"/>
+      <c r="G272" s="44"/>
+      <c r="H272" s="44"/>
+      <c r="I272" s="44"/>
+      <c r="J272" s="44"/>
+      <c r="K272" s="44"/>
+      <c r="L272" s="44"/>
+      <c r="M272" s="44"/>
     </row>
     <row r="307" spans="4:14">
-      <c r="D307" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="E307" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="F307" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="G307" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="H307" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="I307" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="J307" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="K307" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="L307" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="M307" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="N307" s="55" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="308" spans="4:14">
-      <c r="D308" t="s">
-        <v>46</v>
-      </c>
-      <c r="E308">
-        <f>STDEV(Tabelle14[Spalte2])</f>
-        <v>0.27030002823373267</v>
-      </c>
-      <c r="F308">
-        <f>STDEV(Tabelle14[Spalte3])</f>
-        <v>0.11573449651772093</v>
-      </c>
-      <c r="G308">
-        <f>STDEV(Tabelle14[Spalte4])</f>
-        <v>8.5587751214146704E-2</v>
-      </c>
-      <c r="H308">
-        <f>STDEV(Tabelle14[Spalte5])</f>
-        <v>3.592389616661136E-2</v>
-      </c>
-      <c r="I308">
-        <f>STDEV(Tabelle14[Spalte7])</f>
-        <v>2.8022547312739773E-2</v>
-      </c>
-      <c r="J308">
-        <f>STDEV(Tabelle14[Spalte7])</f>
-        <v>2.8022547312739773E-2</v>
-      </c>
-      <c r="K308">
-        <f>STDEV(Tabelle14[Spalte8])</f>
-        <v>2.4942038071455556E-2</v>
-      </c>
-      <c r="L308">
-        <f>STDEV(Tabelle14[Spalte9])</f>
-        <v>0.1128331324987196</v>
-      </c>
-      <c r="M308">
-        <f>STDEV(Tabelle14[Spalte10])</f>
-        <v>7.83699056096306E-2</v>
-      </c>
-      <c r="N308">
-        <f>STDEV(Tabelle14[Spalte11])</f>
-        <v>0.21041062610748731</v>
-      </c>
-    </row>
-    <row r="309" spans="4:14">
-      <c r="D309" t="s">
-        <v>68</v>
-      </c>
-      <c r="E309">
-        <v>0.15118479455705683</v>
-      </c>
-      <c r="F309">
-        <v>3.7766596212438205E-2</v>
-      </c>
-      <c r="G309">
-        <v>3.3324560249003474E-2</v>
-      </c>
-      <c r="H309">
-        <v>9.3330200448672081E-3</v>
-      </c>
-      <c r="I309">
-        <v>1.6693837501494849E-2</v>
-      </c>
-      <c r="J309">
-        <v>1.922169826551564E-2</v>
-      </c>
-      <c r="K309">
-        <v>1.5423836644690757E-2</v>
-      </c>
-      <c r="L309">
-        <v>2.5874189537269287E-2</v>
-      </c>
-      <c r="M309">
-        <v>5.6501047964198518E-2</v>
-      </c>
-      <c r="N309">
-        <v>0.10868956275849763</v>
-      </c>
-    </row>
-    <row r="310" spans="4:14">
-      <c r="D310" t="s">
-        <v>54</v>
-      </c>
-      <c r="E310">
-        <v>0.45378959882306691</v>
-      </c>
-      <c r="F310">
-        <v>0.12130431501849086</v>
-      </c>
-      <c r="G310">
-        <v>6.8092429442401306E-2</v>
-      </c>
-      <c r="H310">
-        <v>5.0770380921826529E-2</v>
-      </c>
-      <c r="I310">
-        <v>0.10287447640079071</v>
-      </c>
-      <c r="J310">
-        <v>0.16392873933190411</v>
-      </c>
-      <c r="K310">
-        <v>0.218855275419505</v>
-      </c>
-      <c r="L310">
-        <v>0.23452303219850071</v>
-      </c>
-      <c r="M310">
-        <v>0.21083792727815212</v>
-      </c>
-      <c r="N310">
-        <v>0.43154678955930992</v>
-      </c>
-    </row>
-    <row r="311" spans="4:14">
-      <c r="D311" t="s">
-        <v>127</v>
-      </c>
-      <c r="E311">
-        <v>0.16154761396859962</v>
-      </c>
-      <c r="F311">
-        <v>5.0094647261064988E-2</v>
-      </c>
-      <c r="G311">
-        <v>5.5250625145308381E-2</v>
-      </c>
-      <c r="H311">
-        <v>1.6944180805158294E-2</v>
-      </c>
-      <c r="I311">
-        <v>2.6969768650335613E-2</v>
-      </c>
-      <c r="J311">
-        <v>2.8451251013101756E-2</v>
-      </c>
-      <c r="K311">
-        <v>1.7013926184468106E-2</v>
-      </c>
-      <c r="L311">
-        <v>4.1100006402870252E-2</v>
-      </c>
-      <c r="M311">
-        <v>5.0147151884282058E-2</v>
-      </c>
-      <c r="N311">
-        <v>0.10668571650067847</v>
-      </c>
-    </row>
-    <row r="312" spans="4:14">
-      <c r="D312" t="s">
-        <v>67</v>
-      </c>
-      <c r="E312">
-        <v>0.12145932825869225</v>
-      </c>
-      <c r="F312">
-        <v>6.6062171674232714E-2</v>
-      </c>
-      <c r="G312">
-        <v>0.1583093241261018</v>
-      </c>
-      <c r="H312">
-        <v>1.4608937423083801E-2</v>
-      </c>
-      <c r="I312">
-        <v>3.8644806282753824E-2</v>
-      </c>
-      <c r="J312">
-        <v>2.5021043774769821E-2</v>
-      </c>
-      <c r="K312">
-        <v>1.218281792655454E-2</v>
-      </c>
-      <c r="L312">
-        <v>1.98944583661936E-2</v>
-      </c>
-      <c r="M312">
-        <v>5.1121629988015636E-2</v>
-      </c>
-      <c r="N312">
-        <v>0.1044018047837549</v>
-      </c>
-    </row>
-    <row r="313" spans="4:14">
-      <c r="D313" t="s">
-        <v>47</v>
-      </c>
-      <c r="E313">
-        <v>0.4156108190858081</v>
-      </c>
-      <c r="F313">
-        <v>0.13784048752090203</v>
-      </c>
-      <c r="G313">
-        <v>9.8247719459969976E-2</v>
-      </c>
-      <c r="H313">
-        <v>5.3455741879327438E-2</v>
-      </c>
-      <c r="I313">
-        <v>6.0317785885405518E-2</v>
-      </c>
-      <c r="J313">
-        <v>4.7527082062880359E-2</v>
-      </c>
-      <c r="K313">
-        <v>2.8382310609877344E-2</v>
-      </c>
-      <c r="L313">
-        <v>0.13217635278405179</v>
-      </c>
-      <c r="M313">
-        <v>0.12059357552339342</v>
-      </c>
-      <c r="N313">
-        <v>0.29073043013509225</v>
-      </c>
+      <c r="D307" s="55"/>
+      <c r="E307" s="55"/>
+      <c r="F307" s="55"/>
+      <c r="G307" s="55"/>
+      <c r="H307" s="55"/>
+      <c r="I307" s="55"/>
+      <c r="J307" s="55"/>
+      <c r="K307" s="55"/>
+      <c r="L307" s="55"/>
+      <c r="M307" s="55"/>
+      <c r="N307" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -51234,7 +53145,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -52500,7 +54411,7 @@
     </row>
     <row r="7" spans="4:14">
       <c r="D7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>0.16154761396859962</v>
@@ -52675,7 +54586,7 @@
     </row>
     <row r="12" spans="4:14">
       <c r="D12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -52736,7 +54647,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="F4" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -53692,7 +55603,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32" s="1">
         <v>-0.78</v>
@@ -53727,12 +55638,12 @@
     </row>
     <row r="70" spans="2:12" ht="18.75">
       <c r="E70" s="19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" s="43" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C71" s="43" t="s">
         <v>97</v>
@@ -54644,7 +56555,7 @@
     </row>
     <row r="5" spans="1:13" ht="15.75">
       <c r="A5" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -54752,7 +56663,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8">
         <v>2.524</v>
@@ -54822,7 +56733,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -54965,7 +56876,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="C14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D14">
         <v>2.5000000000000001E-2</v>
@@ -55194,7 +57105,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>2.524</v>
@@ -55264,7 +57175,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -55299,7 +57210,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -55407,7 +57318,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="B13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C13">
         <v>2.5000000000000001E-2</v>
@@ -55787,15 +57698,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B7:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="7" spans="2:12">
       <c r="E7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -55950,7 +57861,7 @@
     </row>
     <row r="12" spans="2:12">
       <c r="B12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12">
         <v>0.16154761396859962</v>
@@ -56083,7 +57994,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -61959,7 +63870,7 @@
         <v>79</v>
       </c>
       <c r="E1" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -62925,7 +64836,7 @@
     </row>
     <row r="32" spans="4:14" ht="15.75">
       <c r="D32" s="49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E32">
         <v>2.524</v>
